--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="305">
   <si>
     <t>土地坐落</t>
   </si>
@@ -619,6 +619,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>宏達國際電子股份有限公 司</t>
   </si>
   <si>
@@ -656,6 +665,9 @@
   </si>
   <si>
     <t>• 10</t>
+  </si>
+  <si>
+    <t>2013-12-13</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -4025,13 +4037,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
@@ -4050,13 +4062,22 @@
       <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
@@ -4073,13 +4094,22 @@
       <c r="G2" s="2">
         <v>480000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -4096,13 +4126,22 @@
       <c r="G3" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
@@ -4119,13 +4158,22 @@
       <c r="G4" s="2">
         <v>104000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -4142,13 +4190,22 @@
       <c r="G5" s="2">
         <v>101000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
@@ -4165,13 +4222,22 @@
       <c r="G6" s="2">
         <v>66420</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
@@ -4188,13 +4254,22 @@
       <c r="G7" s="2">
         <v>670010</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>96</v>
@@ -4211,13 +4286,22 @@
       <c r="G8" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>96</v>
@@ -4234,13 +4318,22 @@
       <c r="G9" s="2">
         <v>450000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -4257,13 +4350,22 @@
       <c r="G10" s="2">
         <v>113240</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>96</v>
@@ -4272,7 +4374,7 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>190</v>
@@ -4280,13 +4382,22 @@
       <c r="G11" s="2">
         <v>101500</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>96</v>
@@ -4303,13 +4414,22 @@
       <c r="G12" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
@@ -4326,13 +4446,22 @@
       <c r="G13" s="2">
         <v>204870</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>96</v>
@@ -4348,6 +4477,15 @@
       </c>
       <c r="G14" s="2">
         <v>286000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -4365,16 +4503,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4382,16 +4520,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4399,16 +4537,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4416,16 +4554,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4433,16 +4571,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4450,16 +4588,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4467,16 +4605,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4484,16 +4622,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4501,16 +4639,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4518,16 +4656,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4535,16 +4673,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4552,16 +4690,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4569,16 +4707,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4586,16 +4724,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4603,16 +4741,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4620,16 +4758,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4637,16 +4775,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4654,16 +4792,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4671,16 +4809,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4688,16 +4826,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4705,16 +4843,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4722,16 +4860,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4739,16 +4877,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4756,16 +4894,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4773,16 +4911,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4790,16 +4928,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4807,16 +4945,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4824,16 +4962,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4841,16 +4979,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4858,16 +4996,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4875,16 +5013,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4892,16 +5030,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4909,16 +5047,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4926,16 +5064,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4956,19 +5094,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4976,22 +5114,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4999,22 +5137,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5032,22 +5170,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5058,19 +5196,19 @@
         <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5081,19 +5219,19 @@
         <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5104,16 +5242,16 @@
         <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>139</v>
@@ -5127,16 +5265,16 @@
         <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
@@ -5150,19 +5288,19 @@
         <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="307">
   <si>
     <t>土地坐落</t>
   </si>
@@ -619,6 +619,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -628,43 +631,46 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>宏達國際電子股份有限公 司</t>
+    <t>宏達國際電子股份有限公司</t>
   </si>
   <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
-    <t>台灣塑膠工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>台灣塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>中鴻鋼鐵股份有限公司</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有 限公司</t>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>友達光電股份有限公司</t>
   </si>
   <si>
-    <t>富邦金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>兆豐金融控股股份有限公 司</t>
+    <t>富邦金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>奇美電子股份有限公司</t>
   </si>
   <si>
-    <t>郷林建設事業股份有限公 司</t>
-  </si>
-  <si>
-    <t>• 10</t>
+    <t>郷林建設事業股份有限公司</t>
+  </si>
+  <si>
+    <t>•10</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-13</t>
@@ -4037,13 +4043,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
@@ -4071,13 +4077,16 @@
       <c r="J1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
@@ -4095,21 +4104,24 @@
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="2">
+        <v>217</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -4127,21 +4139,24 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="2">
+        <v>217</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
@@ -4159,21 +4174,24 @@
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="2">
+        <v>217</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -4191,21 +4209,24 @@
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="2">
+        <v>217</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
@@ -4223,21 +4244,24 @@
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="2">
+        <v>217</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
@@ -4255,21 +4279,24 @@
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="2">
+        <v>217</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>96</v>
@@ -4287,21 +4314,24 @@
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="2">
+        <v>217</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>96</v>
@@ -4319,21 +4349,24 @@
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="2">
+        <v>217</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -4351,21 +4384,24 @@
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="2">
+        <v>217</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>96</v>
@@ -4374,7 +4410,7 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>190</v>
@@ -4383,21 +4419,24 @@
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="2">
+        <v>217</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>96</v>
@@ -4415,21 +4454,24 @@
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="2">
+        <v>217</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
@@ -4447,21 +4489,24 @@
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2">
+        <v>217</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="2">
         <v>1765</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>96</v>
@@ -4479,12 +4524,15 @@
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="2">
+        <v>217</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="2">
         <v>1765</v>
       </c>
     </row>
@@ -4503,16 +4551,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4520,16 +4568,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4537,16 +4585,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4554,16 +4602,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4571,16 +4619,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4588,16 +4636,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4605,16 +4653,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4622,16 +4670,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4639,16 +4687,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4656,16 +4704,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4673,16 +4721,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4690,16 +4738,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4707,16 +4755,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4724,16 +4772,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4741,16 +4789,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4758,16 +4806,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4775,16 +4823,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4792,16 +4840,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4809,16 +4857,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4826,16 +4874,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4843,16 +4891,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4860,16 +4908,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4877,16 +4925,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4894,16 +4942,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4911,16 +4959,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4928,16 +4976,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4945,16 +4993,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4962,16 +5010,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4979,16 +5027,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4996,16 +5044,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5013,16 +5061,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5030,16 +5078,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5047,16 +5095,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5064,16 +5112,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5094,19 +5142,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5114,22 +5162,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5137,22 +5185,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5170,22 +5218,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5196,19 +5244,19 @@
         <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5219,19 +5267,19 @@
         <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5242,16 +5290,16 @@
         <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>139</v>
@@ -5265,16 +5313,16 @@
         <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
@@ -5288,19 +5336,19 @@
         <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="312">
   <si>
     <t>土地坐落</t>
   </si>
@@ -622,6 +622,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -631,6 +634,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>宏達國際電子股份有限公司</t>
   </si>
   <si>
@@ -667,13 +676,19 @@
     <t>郷林建設事業股份有限公司</t>
   </si>
   <si>
-    <t>•10</t>
+    <t>10</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-13</t>
+  </si>
+  <si>
+    <t>tmpf3b81</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -4043,13 +4058,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
@@ -4080,13 +4095,22 @@
       <c r="K1" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
@@ -4104,24 +4128,33 @@
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2">
+        <v>221</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -4139,24 +4172,33 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="2">
+        <v>221</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
@@ -4174,24 +4216,33 @@
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="2">
+        <v>221</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -4209,24 +4260,33 @@
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="2">
+        <v>221</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
@@ -4244,24 +4304,33 @@
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="2">
+        <v>221</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
@@ -4279,24 +4348,33 @@
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="2">
+        <v>221</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>96</v>
@@ -4314,24 +4392,33 @@
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="2">
+        <v>221</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>96</v>
@@ -4349,24 +4436,33 @@
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="2">
+        <v>221</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -4384,24 +4480,33 @@
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="2">
+        <v>221</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>96</v>
@@ -4410,7 +4515,7 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>190</v>
@@ -4419,24 +4524,33 @@
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="2">
+        <v>221</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>96</v>
@@ -4454,24 +4568,33 @@
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="2">
+        <v>221</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
@@ -4489,24 +4612,33 @@
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="2">
+        <v>221</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>96</v>
@@ -4524,16 +4656,25 @@
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="2">
+        <v>221</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="2">
         <v>1765</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N14" s="2">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4551,16 +4692,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4568,16 +4709,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4585,16 +4726,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4602,16 +4743,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4619,16 +4760,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4636,16 +4777,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4653,16 +4794,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4670,16 +4811,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4687,16 +4828,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4704,16 +4845,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4721,16 +4862,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4738,16 +4879,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4755,16 +4896,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4772,16 +4913,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4789,16 +4930,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4806,16 +4947,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4823,16 +4964,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4840,16 +4981,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4857,16 +4998,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4874,16 +5015,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4891,16 +5032,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4908,16 +5049,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4925,16 +5066,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4942,16 +5083,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4959,16 +5100,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4976,16 +5117,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4993,16 +5134,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5010,16 +5151,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5027,16 +5168,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5044,16 +5185,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5061,16 +5202,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5078,16 +5219,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5095,16 +5236,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5112,16 +5253,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5142,19 +5283,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5162,22 +5303,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5185,22 +5326,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5218,22 +5359,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5244,19 +5385,19 @@
         <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5267,19 +5408,19 @@
         <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5290,16 +5431,16 @@
         <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>139</v>
@@ -5313,16 +5454,16 @@
         <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
@@ -5336,19 +5477,19 @@
         <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,9 +20,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="312">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="312">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段一小段03400000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段一小段03430000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛段一小段03440000地號</t>
+  </si>
+  <si>
+    <t>高雄市新興區新興段一小段04240000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮東港段02430008地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段00780000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02220000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02260000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02270000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02280000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02290000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02300000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02320000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02330000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02340000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02350000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02590000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02600000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03150000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03160000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03170000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03180000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段07160000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段07170000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段07180000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新愛段07370001地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新愛段07370002地號</t>
+  </si>
+  <si>
+    <t>屏東縣崁頂鄉頂和段04340000地號</t>
+  </si>
+  <si>
+    <t>臺中市中區重慶段六小段00010036地號</t>
+  </si>
+  <si>
+    <t>臺中市中區重慶段六小段00010037地號</t>
+  </si>
+  <si>
+    <t>臺中市中區平等段六小段00020040地號</t>
+  </si>
+  <si>
+    <t>臺中市中區平等段六小段00020041地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段03290020地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段03290036地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段03290080地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市中路段26450000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣八德市大智段07360000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段16270000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段16360000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段16370000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02450000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02460000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02570000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02580000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03560000地號</t>
+  </si>
+  <si>
+    <t>屏東縣崁頂鄉頂信段03440000地號</t>
+  </si>
+  <si>
+    <t>屏東縣崁頂鄕頂信段03440003地號</t>
+  </si>
+  <si>
+    <t>屏東縣崁頂鄉頂信段03440004地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段00340000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段00410000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段00420000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段03200000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段03670000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段03690000地號</t>
+  </si>
+  <si>
+    <t>屏東縣潮州鎮三共段03700000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮東新段09690000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段三小段00380000地號</t>
+  </si>
+  <si>
+    <t>臺中市北屯區同榮段05630001地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新愛段01800000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03200000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03190000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段03180000地號&gt;</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02240000地號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段02220000地號.</t>
+  </si>
+  <si>
+    <t>12365.32</t>
+  </si>
+  <si>
+    <t>16分之2</t>
+  </si>
+  <si>
+    <t>2500分之11</t>
+  </si>
+  <si>
+    <t>700分之127</t>
+  </si>
+  <si>
+    <t>1909320分之109032</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>116分之1</t>
+  </si>
+  <si>
+    <t>100000分之737</t>
+  </si>
+  <si>
+    <t>1720分之510</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>179988分之9964</t>
+  </si>
+  <si>
+    <t>10000分之57</t>
+  </si>
+  <si>
+    <t>1720分之400</t>
+  </si>
+  <si>
+    <t>28分之7</t>
+  </si>
+  <si>
+    <t>4分之2</t>
+  </si>
+  <si>
+    <t>100分之10</t>
+  </si>
+  <si>
+    <t>100分之55</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>1720分之640</t>
+  </si>
+  <si>
+    <t>136380分之38970</t>
+  </si>
+  <si>
+    <t>蘇清泉</t>
+  </si>
+  <si>
+    <t>蘇主榮</t>
+  </si>
+  <si>
+    <t>蘇◦荃</t>
+  </si>
+  <si>
+    <t>蘇〇荃</t>
+  </si>
+  <si>
+    <t>蘇◦荃■</t>
+  </si>
+  <si>
+    <t>76年12月10日</t>
+  </si>
+  <si>
+    <t>78年05月23日</t>
+  </si>
+  <si>
+    <t>88年06月21日</t>
+  </si>
+  <si>
+    <t>94年04月08日</t>
+  </si>
+  <si>
+    <t>94年10月27日</t>
+  </si>
+  <si>
+    <t>85年08月09日</t>
+  </si>
+  <si>
+    <t>85年08月</t>
+  </si>
+  <si>
+    <t>94年08月10日</t>
+  </si>
+  <si>
+    <t>94年12月28日</t>
+  </si>
+  <si>
+    <t>99年07月29日</t>
+  </si>
+  <si>
+    <t>96年01月16日</t>
+  </si>
+  <si>
+    <t>98年11月04日</t>
+  </si>
+  <si>
+    <t>75年06月04日</t>
+  </si>
+  <si>
+    <t>76年04月27日</t>
+  </si>
+  <si>
+    <t>75年06月</t>
+  </si>
+  <si>
+    <t>68年09月19日</t>
+  </si>
+  <si>
+    <t>65年07月31日</t>
+  </si>
+  <si>
+    <t>83年05月19日</t>
+  </si>
+  <si>
+    <t>96年03月26日</t>
+  </si>
+  <si>
+    <t>72年09月02日</t>
+  </si>
+  <si>
+    <t>67年10月20日</t>
+  </si>
+  <si>
+    <t>91年11月13日</t>
+  </si>
+  <si>
+    <t>91年11月21曰</t>
+  </si>
+  <si>
+    <t>91年11月21日</t>
+  </si>
+  <si>
+    <t>90年01月20日</t>
+  </si>
+  <si>
+    <t>98年11月20日</t>
+  </si>
+  <si>
+    <t>98年11月</t>
+  </si>
+  <si>
+    <t>101年04月02曰</t>
+  </si>
+  <si>
+    <t>101年04月02日</t>
+  </si>
+  <si>
+    <t>100年11月22曰</t>
+  </si>
+  <si>
+    <t>100年11月22日</t>
+  </si>
+  <si>
+    <t>101年04月19曰</t>
+  </si>
+  <si>
+    <t>101年02月14曰</t>
+  </si>
+  <si>
+    <t>96年07月13日</t>
+  </si>
+  <si>
+    <t>102年05月30曰</t>
+  </si>
+  <si>
+    <t>102年05</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>4292700</t>
+  </si>
+  <si>
+    <t>57000000(持分十分之七）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-13</t>
+  </si>
+  <si>
+    <t>tmpf3b81</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,442 +496,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段一小段 0340-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段一小段 0343-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛段一小段 0344-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市新興區新興段一小段 0424-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮東港段0243-0008 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0078-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0222-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0226 - 0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0227 - 0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0228-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0229-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0230-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0232-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0233-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0234-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0235-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0259-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0260-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0315-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0316-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0317 - 0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0318-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0716-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0717-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0718-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新愛段0737-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新愛段0737-0002 地號</t>
-  </si>
-  <si>
-    <t>屏東縣崁頂鄉頂和段0434-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市中區重慶段六小段 0001-0036 地號</t>
-  </si>
-  <si>
-    <t>臺中市中區重慶段六小段 0001-0037 地號</t>
-  </si>
-  <si>
-    <t>臺中市中區平等段六小段 0002-0040 地號</t>
-  </si>
-  <si>
-    <t>臺中市中•區平等段六小段 0002-0041 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0329-0020 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0329-0036 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0329-0080 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市中路段2645-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣八德市大智段0736-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段1627-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段1636-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段1637-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0245-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0246-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0257-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0258-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0356 - 0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣崁頂鄉頂信段0344-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣崁頂鄕頂信段0344-0003 地號</t>
-  </si>
-  <si>
-    <t>屏東縣崁頂鄉頂信段0344-0004 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0034-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0041-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0042-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0320-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0367 - 0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0367-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0369-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣潮州鎮三共段0370-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮東新段0969-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段三小段 0038-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市北屯區同榮段0563-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新愛段0180-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0320-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0319-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0318-0000 地號 &gt;</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0317-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0224-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段0222-0000 地號 .</t>
-  </si>
-  <si>
-    <t>12，365.32</t>
-  </si>
-  <si>
-    <t>16分之2</t>
-  </si>
-  <si>
-    <t>2500分之 11</t>
-  </si>
-  <si>
-    <t>700分之 127</t>
-  </si>
-  <si>
-    <t>1909320 分 之 109032</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>1909320 分 之109032</t>
-  </si>
-  <si>
-    <t>116分之1</t>
-  </si>
-  <si>
-    <t>100000 分 之737</t>
-  </si>
-  <si>
-    <t>1720分之 510</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>179988 分 之 9964</t>
-  </si>
-  <si>
-    <t>10000分之 57</t>
-  </si>
-  <si>
-    <t>1720分之 400</t>
-  </si>
-  <si>
-    <t>28分之7</t>
-  </si>
-  <si>
-    <t>4分之2</t>
-  </si>
-  <si>
-    <t>100分之10</t>
-  </si>
-  <si>
-    <t>100分之55</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>1720分之 640</t>
-  </si>
-  <si>
-    <t>136380 分 之 38970</t>
-  </si>
-  <si>
-    <t>蘇清泉</t>
-  </si>
-  <si>
-    <t>蘇主榮</t>
-  </si>
-  <si>
-    <t>蘇◦荃</t>
-  </si>
-  <si>
-    <t>蘇〇荃</t>
-  </si>
-  <si>
-    <t>蘇◦荃■</t>
-  </si>
-  <si>
-    <t>76年12月 10日</t>
-  </si>
-  <si>
-    <t>78年05月 23日</t>
-  </si>
-  <si>
-    <t>88年06月 21日</t>
-  </si>
-  <si>
-    <t>94年04月 08日</t>
-  </si>
-  <si>
-    <t>94年10月 27日</t>
-  </si>
-  <si>
-    <t>85年08月 09日</t>
-  </si>
-  <si>
-    <t>85年08月</t>
-  </si>
-  <si>
-    <t>94年08月 10日</t>
-  </si>
-  <si>
-    <t>94年12月 28日</t>
-  </si>
-  <si>
-    <t>99年07月 29日</t>
-  </si>
-  <si>
-    <t>96年01月 16日</t>
-  </si>
-  <si>
-    <t>98年11月 04日</t>
-  </si>
-  <si>
-    <t>75年06月 04日</t>
-  </si>
-  <si>
-    <t>76年04月 27日</t>
-  </si>
-  <si>
-    <t>75年06月</t>
-  </si>
-  <si>
-    <t>68年09月 19日</t>
-  </si>
-  <si>
-    <t>65年07月 31日</t>
-  </si>
-  <si>
-    <t>83年05月 19日</t>
-  </si>
-  <si>
-    <t>96年03月 26日</t>
-  </si>
-  <si>
-    <t>72年09月 02日</t>
-  </si>
-  <si>
-    <t>67年10月 20日</t>
-  </si>
-  <si>
-    <t>91年11月 13日</t>
-  </si>
-  <si>
-    <t>91年11月 21曰</t>
-  </si>
-  <si>
-    <t>91年11月 21日</t>
-  </si>
-  <si>
-    <t>90年01月 20日</t>
-  </si>
-  <si>
-    <t>98年11月 20日</t>
-  </si>
-  <si>
-    <t>98年11月</t>
-  </si>
-  <si>
-    <t>101 年 04 月02曰</t>
-  </si>
-  <si>
-    <t>101 年 04 月02日</t>
-  </si>
-  <si>
-    <t>100 年 11 月22曰</t>
-  </si>
-  <si>
-    <t>100 年 11 月22日</t>
-  </si>
-  <si>
-    <t>101 年 04 月19曰</t>
-  </si>
-  <si>
-    <t>101 年 02 月14曰</t>
-  </si>
-  <si>
-    <t>96年07月 13日</t>
-  </si>
-  <si>
-    <t>102 年 05 月30曰</t>
-  </si>
-  <si>
-    <t>102 年 05</t>
-  </si>
-  <si>
-    <t>102 年 05 • 月30曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年）_</t>
-  </si>
-  <si>
-    <t>9，000，000</t>
-  </si>
-  <si>
-    <t>4，292，700</t>
-  </si>
-  <si>
-    <t>57，000，000(持 分十分之七）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺北市大安區正聲里光復南路</t>
   </si>
   <si>
     <t>高雄市新興區開平里七賢一路</t>
   </si>
   <si>
-    <t>屏東縣東港鎮興東里26鄰中正 路</t>
+    <t>屏東縣東港鎮興東里26鄰中正路</t>
   </si>
   <si>
     <t>屏東縣東港鎮興東里中正路</t>
   </si>
   <si>
-    <t>屏東縣東港鎮興東里34鄰新學 路</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段00046-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣東港鎮新孝段00128-000 建號</t>
+    <t>屏東縣東港鎮興東里34鄰新學路</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段00046000建號</t>
+  </si>
+  <si>
+    <t>屏東縣東港鎮新孝段00128000建號</t>
   </si>
   <si>
     <t>臺中市中區光復里光復路</t>
@@ -496,22 +532,22 @@
     <t>■726.80</t>
   </si>
   <si>
-    <t>100000 分 之 50000</t>
-  </si>
-  <si>
-    <t>81年11月 09日</t>
-  </si>
-  <si>
-    <t>89年09月 11曰</t>
-  </si>
-  <si>
-    <t>89年03月 09日</t>
-  </si>
-  <si>
-    <t>90年01月 29日</t>
-  </si>
-  <si>
-    <t>86年12月 01曰</t>
+    <t>100000分之50000</t>
+  </si>
+  <si>
+    <t>81年11月09日</t>
+  </si>
+  <si>
+    <t>89年09月11曰</t>
+  </si>
+  <si>
+    <t>89年03月09日</t>
+  </si>
+  <si>
+    <t>90年01月29日</t>
+  </si>
+  <si>
+    <t>86年12月01曰</t>
   </si>
   <si>
     <t>(自建）</t>
@@ -523,7 +559,7 @@
     <t>(超過五年)</t>
   </si>
   <si>
-    <t>1，500，000</t>
+    <t>1500000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -547,7 +583,7 @@
     <t>第一商業銀行東港分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行東港分 行</t>
+    <t>合作金庫商業銀行東港分行</t>
   </si>
   <si>
     <t>玉山商業銀行東港分行</t>
@@ -556,7 +592,7 @@
     <t>彰化商業銀行東港分行</t>
   </si>
   <si>
-    <t>東港郵局（第6 3支局）</t>
+    <t>東港郵局（第63支局）</t>
   </si>
   <si>
     <t>臺灣銀行前金分行</t>
@@ -568,7 +604,7 @@
     <t>第一商業銀行萬華分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行高雄分 行</t>
+    <t>國泰世華商業銀行高雄分行</t>
   </si>
   <si>
     <t>元大商業銀行屏東分行</t>
@@ -601,12 +637,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -619,27 +649,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>宏達國際電子股份有限公司</t>
   </si>
   <si>
@@ -682,15 +691,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-13</t>
-  </si>
-  <si>
-    <t>tmpf3b81</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -742,7 +742,7 @@
     <t>永保安康終身壽險</t>
   </si>
   <si>
-    <t>WL多型態定期壽險-甲型</t>
+    <t>WL多型態定期壽險甲型</t>
   </si>
   <si>
     <t>至尊還本終身</t>
@@ -769,7 +769,7 @@
     <t>PDL安泰重大疾病終身保險</t>
   </si>
   <si>
-    <t>金滿意二八八八還本保險 (92)</t>
+    <t>金滿意二八八八還本保險(92)</t>
   </si>
   <si>
     <t>美好外幣終身壽險</t>
@@ -850,16 +850,16 @@
     <t>F478001987</t>
   </si>
   <si>
-    <t>T120605740-03</t>
-  </si>
-  <si>
-    <t>T120605740-02</t>
-  </si>
-  <si>
-    <t>B220005443-01</t>
-  </si>
-  <si>
-    <t>B220005443-02</t>
+    <t>T12060574003</t>
+  </si>
+  <si>
+    <t>T12060574002</t>
+  </si>
+  <si>
+    <t>B22000544301</t>
+  </si>
+  <si>
+    <t>B22000544302</t>
   </si>
   <si>
     <t>1023723113</t>
@@ -895,13 +895,13 @@
     <t>債權</t>
   </si>
   <si>
-    <t>安泰醫療社團法人安泰醫院 屏東縣東港鎮中正路一段 210號</t>
-  </si>
-  <si>
-    <t>天生、崑泰養護中心籌備處 屏東縣崁頂鄉北勢村中正路 836號</t>
-  </si>
-  <si>
-    <t>102年12月 13日</t>
+    <t>安泰醫療社團法人安泰醫院屏東縣東港鎮中正路一段210號</t>
+  </si>
+  <si>
+    <t>天生崑泰養護中心籌備處屏東縣崁頂鄉北勢村中正路836號</t>
+  </si>
+  <si>
+    <t>102年12月13日</t>
   </si>
   <si>
     <t>往來</t>
@@ -925,37 +925,37 @@
     <t>泰富國際輪船股份有限公司</t>
   </si>
   <si>
-    <t>天生、崑泰養護中心</t>
+    <t>天生崑泰養護中心</t>
   </si>
   <si>
     <t>屏東縣中正路一段210號</t>
   </si>
   <si>
-    <t>屏東縣朝安里20鄰朝隆路 26號</t>
+    <t>屏東縣朝安里20鄰朝隆路26號</t>
   </si>
   <si>
     <t>屏東縣北勢村中正路836號</t>
   </si>
   <si>
-    <t>845,990,157</t>
-  </si>
-  <si>
-    <t>3，500,000</t>
-  </si>
-  <si>
-    <t>102年09月 30日</t>
-  </si>
-  <si>
-    <t>101年12月 24日</t>
-  </si>
-  <si>
-    <t>101年04月 27日</t>
-  </si>
-  <si>
-    <t>安泰醫療社 團法人淨值</t>
-  </si>
-  <si>
-    <t>個人投資事 業期望帶動 觀光</t>
+    <t>845990157</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>102年09月30日</t>
+  </si>
+  <si>
+    <t>101年12月24日</t>
+  </si>
+  <si>
+    <t>101年04月27日</t>
+  </si>
+  <si>
+    <t>安泰醫療社團法人淨值</t>
+  </si>
+  <si>
+    <t>個人投資事業期望帶動觀光</t>
   </si>
 </sst>
 </file>
@@ -1314,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,1929 +1342,3504 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>8.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>8.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>8.37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>14.86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>125.54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0.44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2.31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>341.39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>189.07</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>292.56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>3.82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>831.12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>97.83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>617.3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>1.86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>97.82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>97.86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>35.04</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>7.76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>16.28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>1.35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>0.14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H24" s="2">
         <v>2100</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>18.09</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" s="2">
         <v>271350</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>0.29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H26" s="2">
         <v>4350</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>211.26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>138.13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>12365.32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H29" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>23.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>6.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>1.75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>6.75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>32.93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>16.75</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O37" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>2.04</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2">
         <v>165.69</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>108.34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>155.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O42" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2">
         <v>51.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2">
         <v>3.5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
         <v>42.95</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O45" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2">
         <v>255.46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2">
         <v>99.98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2">
         <v>97.86</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O48" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2">
         <v>65.45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O49" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2">
         <v>354.26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2">
         <v>321000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O50" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2">
         <v>257</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H51" s="2">
         <v>233000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O51" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2">
         <v>276.5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H52" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2">
         <v>105.55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H53" s="2">
         <v>159644</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O53" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2">
         <v>54.35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H54" s="2">
         <v>82204</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2">
         <v>299.07</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H55" s="2">
         <v>452343</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O55" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2">
         <v>190.16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H56" s="2">
         <v>287617</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O56" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2">
         <v>196.7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H57" s="2">
         <v>4313877</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O57" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2">
         <v>196.7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H58" s="2">
         <v>4313877</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O58" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2">
         <v>117.25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H59" s="2">
         <v>2571439</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O59" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>117.25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H60" s="2">
         <v>2571439</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O60" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2">
         <v>32.61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H61" s="2">
         <v>715178</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O61" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2">
         <v>32.61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H62" s="2">
         <v>715178</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O62" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
         <v>1892.13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O63" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2">
         <v>20943</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O64" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2">
         <v>14159</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H65" s="2">
         <v>42915413</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O65" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>465.88</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H66" s="2">
         <v>2842951</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O66" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2">
         <v>712.52</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H67" s="2">
         <v>4348029</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O67" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2">
         <v>583.21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H68" s="2">
         <v>3615902</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O68" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2">
         <v>20.58</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H69" s="2">
         <v>120050</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O69" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2">
         <v>39.47</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H70" s="2">
         <v>230242</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O70" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2">
         <v>23.77</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H71" s="2">
         <v>118863</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O71" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2">
         <v>285.12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H72" s="2">
         <v>1425757</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O72" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2">
         <v>136.03</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H73" s="2">
         <v>680225</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O73" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2">
         <v>5.58</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H74" s="2">
         <v>32550</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O74" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2">
         <v>40.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H75" s="2">
         <v>202522</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O75" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3282,25 +4857,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3308,25 +4883,25 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2">
         <v>126.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3334,25 +4909,25 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2">
         <v>166.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3360,25 +4935,25 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2">
         <v>4758.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3386,25 +4961,25 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2">
         <v>1160.1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3412,25 +4987,25 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3438,25 +5013,25 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2">
         <v>143.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3464,25 +5039,25 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2">
         <v>94.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3490,25 +5065,25 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2">
         <v>127.9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3516,25 +5091,25 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2">
         <v>217.4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3542,25 +5117,25 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2">
         <v>133.7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3568,25 +5143,25 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2">
         <v>150.9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3594,25 +5169,25 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2">
         <v>1240.85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3630,22 +5205,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3653,16 +5228,16 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -3674,16 +5249,16 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -3695,16 +5270,16 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -3716,16 +5291,16 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -3737,16 +5312,16 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2">
         <v>555853.87</v>
@@ -3760,16 +5335,16 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -3781,16 +5356,16 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3802,16 +5377,16 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -3823,16 +5398,16 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -3844,16 +5419,16 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -3865,16 +5440,16 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -3886,16 +5461,16 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2">
         <v>167.27</v>
@@ -3909,16 +5484,16 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -3930,16 +5505,16 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -3951,16 +5526,16 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -3972,16 +5547,16 @@
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -3993,16 +5568,16 @@
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -4014,16 +5589,16 @@
         <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -4035,16 +5610,16 @@
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -4066,43 +5641,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4110,10 +5685,10 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>48000</v>
@@ -4122,28 +5697,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G2" s="2">
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L2" s="2">
         <v>1765</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2">
         <v>161</v>
@@ -4154,10 +5729,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>20000</v>
@@ -4166,28 +5741,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L3" s="2">
         <v>1765</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2">
         <v>162</v>
@@ -4198,10 +5773,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>10400</v>
@@ -4210,28 +5785,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G4" s="2">
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2">
         <v>1765</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2">
         <v>163</v>
@@ -4242,10 +5817,10 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>10100</v>
@@ -4254,28 +5829,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G5" s="2">
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L5" s="2">
         <v>1765</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N5" s="2">
         <v>164</v>
@@ -4286,10 +5861,10 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>6642</v>
@@ -4298,28 +5873,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G6" s="2">
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2">
         <v>1765</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N6" s="2">
         <v>165</v>
@@ -4330,10 +5905,10 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>67001</v>
@@ -4342,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G7" s="2">
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2">
         <v>1765</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N7" s="2">
         <v>166</v>
@@ -4374,10 +5949,10 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>2000</v>
@@ -4386,28 +5961,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G8" s="2">
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L8" s="2">
         <v>1765</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N8" s="2">
         <v>167</v>
@@ -4418,10 +5993,10 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2">
         <v>45000</v>
@@ -4430,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" s="2">
         <v>1765</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N9" s="2">
         <v>168</v>
@@ -4462,10 +6037,10 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>11324</v>
@@ -4474,28 +6049,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G10" s="2">
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L10" s="2">
         <v>1765</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2">
         <v>169</v>
@@ -4506,40 +6081,40 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2">
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L11" s="2">
         <v>1765</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2">
         <v>170</v>
@@ -4550,10 +6125,10 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
         <v>19000</v>
@@ -4562,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G12" s="2">
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L12" s="2">
         <v>1765</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2">
         <v>171</v>
@@ -4594,10 +6169,10 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>20487</v>
@@ -4606,28 +6181,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G13" s="2">
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L13" s="2">
         <v>1765</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N13" s="2">
         <v>172</v>
@@ -4638,10 +6213,10 @@
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>28600</v>
@@ -4650,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G14" s="2">
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L14" s="2">
         <v>1765</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="N14" s="2">
         <v>173</v>
@@ -4715,7 +6290,7 @@
         <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>252</v>
@@ -4732,7 +6307,7 @@
         <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>253</v>
@@ -4749,7 +6324,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>254</v>
@@ -4766,7 +6341,7 @@
         <v>235</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>255</v>
@@ -4783,7 +6358,7 @@
         <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>256</v>
@@ -4800,7 +6375,7 @@
         <v>232</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>257</v>
@@ -4817,7 +6392,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>258</v>
@@ -4834,7 +6409,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>259</v>
@@ -4851,7 +6426,7 @@
         <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>260</v>
@@ -4868,7 +6443,7 @@
         <v>235</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>261</v>
@@ -4885,7 +6460,7 @@
         <v>238</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>262</v>
@@ -4902,7 +6477,7 @@
         <v>232</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>263</v>
@@ -4919,7 +6494,7 @@
         <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>264</v>
@@ -4936,7 +6511,7 @@
         <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>265</v>
@@ -4953,7 +6528,7 @@
         <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>266</v>
@@ -4970,7 +6545,7 @@
         <v>233</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>267</v>
@@ -4987,7 +6562,7 @@
         <v>241</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>268</v>
@@ -5004,7 +6579,7 @@
         <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>269</v>
@@ -5021,7 +6596,7 @@
         <v>242</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>270</v>
@@ -5038,7 +6613,7 @@
         <v>242</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>271</v>
@@ -5055,7 +6630,7 @@
         <v>243</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>272</v>
@@ -5072,7 +6647,7 @@
         <v>243</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>273</v>
@@ -5089,7 +6664,7 @@
         <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>274</v>
@@ -5106,7 +6681,7 @@
         <v>244</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>275</v>
@@ -5123,7 +6698,7 @@
         <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>276</v>
@@ -5140,7 +6715,7 @@
         <v>246</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>277</v>
@@ -5157,7 +6732,7 @@
         <v>247</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>278</v>
@@ -5174,7 +6749,7 @@
         <v>248</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>279</v>
@@ -5191,7 +6766,7 @@
         <v>232</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>280</v>
@@ -5208,7 +6783,7 @@
         <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>281</v>
@@ -5225,7 +6800,7 @@
         <v>250</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>282</v>
@@ -5242,7 +6817,7 @@
         <v>244</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>283</v>
@@ -5259,7 +6834,7 @@
         <v>251</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>284</v>
@@ -5280,7 +6855,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>285</v>
@@ -5306,7 +6881,7 @@
         <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>291</v>
@@ -5329,7 +6904,7 @@
         <v>290</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>292</v>
@@ -5382,7 +6957,7 @@
         <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>299</v>
@@ -5405,7 +6980,7 @@
         <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>300</v>
@@ -5428,7 +7003,7 @@
         <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>299</v>
@@ -5443,7 +7018,7 @@
         <v>307</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5451,7 +7026,7 @@
         <v>251</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>301</v>
@@ -5466,7 +7041,7 @@
         <v>308</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5474,7 +7049,7 @@
         <v>252</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>299</v>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="285">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區仁愛段一小段03400000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區仁愛段一小段03430000地號</t>
@@ -256,9 +259,6 @@
     <t>屏東縣東港鎮新孝段02220000地號.</t>
   </si>
   <si>
-    <t>12365.32</t>
-  </si>
-  <si>
     <t>16分之2</t>
   </si>
   <si>
@@ -475,27 +475,6 @@
     <t>tmpf3b81</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區正聲里光復南路</t>
   </si>
   <si>
@@ -562,27 +541,15 @@
     <t>1500000</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>第一商業銀行東港分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行東港分行</t>
   </si>
   <si>
@@ -610,9 +577,6 @@
     <t>元大商業銀行屏東分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
@@ -646,39 +607,36 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
+    <t>台灣水泥股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>中鴻鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>富邦金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>宏達國際電子股份有限公司</t>
   </si>
   <si>
-    <t>台灣水泥股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣塑膠工業股份有限公司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公司</t>
-  </si>
-  <si>
-    <t>中鴻鋼鐵股份有限公司</t>
-  </si>
-  <si>
-    <t>鴻海精密工業股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有限公司</t>
-  </si>
-  <si>
-    <t>友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>富邦金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐金融控股股份有限公司</t>
-  </si>
-  <si>
     <t>奇美電子股份有限公司</t>
   </si>
   <si>
@@ -691,21 +649,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>護癌宣言終身健康保險</t>
+  </si>
+  <si>
+    <t>1008835096</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -718,9 +670,6 @@
     <t>二商美邦人壽</t>
   </si>
   <si>
-    <t>護癌宣言終身健康保險</t>
-  </si>
-  <si>
     <t>健康久久終身醫療健康保險</t>
   </si>
   <si>
@@ -778,9 +727,6 @@
     <t>六年繳費金富利終身保險</t>
   </si>
   <si>
-    <t>1008835096</t>
-  </si>
-  <si>
     <t>1008835103</t>
   </si>
   <si>
@@ -877,82 +823,55 @@
     <t>172000150319</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>債權</t>
   </si>
   <si>
     <t>安泰醫療社團法人安泰醫院屏東縣東港鎮中正路一段210號</t>
   </si>
   <si>
+    <t>102年12月13日</t>
+  </si>
+  <si>
+    <t>往來</t>
+  </si>
+  <si>
     <t>天生崑泰養護中心籌備處屏東縣崁頂鄉北勢村中正路836號</t>
   </si>
   <si>
-    <t>102年12月13日</t>
-  </si>
-  <si>
-    <t>往來</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>安泰醫療社團法人</t>
   </si>
   <si>
+    <t>屏東縣中正路一段210號</t>
+  </si>
+  <si>
+    <t>845990157</t>
+  </si>
+  <si>
+    <t>102年09月30日</t>
+  </si>
+  <si>
+    <t>安泰醫療社團法人淨值</t>
+  </si>
+  <si>
     <t>泰富國際輪船股份有限公司</t>
   </si>
   <si>
     <t>天生崑泰養護中心</t>
   </si>
   <si>
-    <t>屏東縣中正路一段210號</t>
-  </si>
-  <si>
     <t>屏東縣朝安里20鄰朝隆路26號</t>
   </si>
   <si>
     <t>屏東縣北勢村中正路836號</t>
   </si>
   <si>
-    <t>845990157</t>
-  </si>
-  <si>
     <t>3500000</t>
   </si>
   <si>
-    <t>102年09月30日</t>
-  </si>
-  <si>
     <t>101年12月24日</t>
   </si>
   <si>
     <t>101年04月27日</t>
-  </si>
-  <si>
-    <t>安泰醫療社團法人淨值</t>
   </si>
   <si>
     <t>個人投資事業期望帶動觀光</t>
@@ -1314,13 +1233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,13 +1282,19 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>8.25</v>
@@ -1408,18 +1333,24 @@
         <v>150</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.03125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>8.25</v>
+        <v>8.37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
@@ -1428,7 +1359,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>140</v>
@@ -1455,27 +1386,33 @@
         <v>150</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.04625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>8.37</v>
+        <v>14.86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>140</v>
@@ -1502,27 +1439,33 @@
         <v>150</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.065384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>14.86</v>
+        <v>125.54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>140</v>
@@ -1549,27 +1492,33 @@
         <v>150</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.181428571428571</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>22.7765428571429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>125.54</v>
+        <v>0.44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>140</v>
@@ -1596,18 +1545,24 @@
         <v>150</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0571051473823141</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0251262648482182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.44</v>
+        <v>2.31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
@@ -1643,27 +1598,33 @@
         <v>150</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0571051473823141</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.131912890453146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2.31</v>
+        <v>341.39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>140</v>
@@ -1690,18 +1651,24 @@
         <v>150</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>341.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>341.39</v>
+        <v>189.07</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>83</v>
@@ -1737,18 +1704,24 @@
         <v>150</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>189.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>189.07</v>
+        <v>292.56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>83</v>
@@ -1784,18 +1757,24 @@
         <v>150</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>292.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>292.56</v>
+        <v>3.82</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
@@ -1831,18 +1810,24 @@
         <v>150</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>3.82</v>
+        <v>831.12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -1878,18 +1863,24 @@
         <v>150</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>831.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>831.12</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>83</v>
@@ -1898,7 +1889,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>140</v>
@@ -1925,18 +1916,24 @@
         <v>150</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>123</v>
+        <v>97.83</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>83</v>
@@ -1945,7 +1942,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>140</v>
@@ -1972,18 +1969,24 @@
         <v>150</v>
       </c>
       <c r="O14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>97.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>97.83</v>
+        <v>617.3</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>83</v>
@@ -2019,18 +2022,24 @@
         <v>150</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>617.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>617.3</v>
+        <v>1.86</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>83</v>
@@ -2066,18 +2075,24 @@
         <v>150</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>1.86</v>
+        <v>97.82</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>83</v>
@@ -2086,7 +2101,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>140</v>
@@ -2113,18 +2128,24 @@
         <v>150</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>97.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>97.82</v>
+        <v>97.86</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>83</v>
@@ -2160,27 +2181,33 @@
         <v>150</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>97.86</v>
+        <v>35.04</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>140</v>
@@ -2207,27 +2234,33 @@
         <v>150</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>35.04</v>
+        <v>7.76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>140</v>
@@ -2254,18 +2287,24 @@
         <v>150</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.0571051473823141</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.443135943686758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>7.76</v>
+        <v>16.28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>82</v>
@@ -2301,18 +2340,24 @@
         <v>150</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.0571051473823141</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.929671799384074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>16.28</v>
+        <v>1.35</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>82</v>
@@ -2348,33 +2393,39 @@
         <v>150</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.0571051473823141</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.0770919489661241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>143</v>
+      <c r="H23" s="2">
+        <v>2100</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>147</v>
@@ -2395,21 +2446,27 @@
         <v>150</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.00862068965517241</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.00120689655172414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>0.14</v>
+        <v>18.09</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>99</v>
@@ -2421,7 +2478,7 @@
         <v>140</v>
       </c>
       <c r="H24" s="2">
-        <v>2100</v>
+        <v>271350</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>147</v>
@@ -2442,21 +2499,27 @@
         <v>150</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.00737</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.1333233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>18.09</v>
+        <v>0.29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
@@ -2468,7 +2531,7 @@
         <v>140</v>
       </c>
       <c r="H25" s="2">
-        <v>271350</v>
+        <v>4350</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>147</v>
@@ -2489,33 +2552,39 @@
         <v>150</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.00862068965517241</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>0.29</v>
+        <v>211.26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="2">
-        <v>4350</v>
+      <c r="H26" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>147</v>
@@ -2536,18 +2605,24 @@
         <v>150</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.296511627906977</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>62.6410465116279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>211.26</v>
+        <v>138.13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>87</v>
@@ -2583,33 +2658,39 @@
         <v>150</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.296511627906977</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>40.9571511627907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>138.13</v>
+        <v>12365.32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>143</v>
+      <c r="H28" s="2">
+        <v>9000000</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>147</v>
@@ -2630,33 +2711,39 @@
         <v>150</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>6182.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>12365.32</v>
+        <v>23.25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="2">
-        <v>9000000</v>
+      <c r="H29" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>147</v>
@@ -2677,18 +2764,24 @@
         <v>150</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>23.25</v>
+        <v>6.5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>84</v>
@@ -2697,7 +2790,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>140</v>
@@ -2724,18 +2817,24 @@
         <v>150</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>84</v>
@@ -2744,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>140</v>
@@ -2771,18 +2870,24 @@
         <v>150</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>1.75</v>
+        <v>6.75</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>84</v>
@@ -2791,7 +2896,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>140</v>
@@ -2818,27 +2923,33 @@
         <v>150</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>6.75</v>
+        <v>32.93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>140</v>
@@ -2865,27 +2976,33 @@
         <v>150</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.055359246171967</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1.82297997644287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>32.93</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>140</v>
@@ -2912,18 +3029,24 @@
         <v>150</v>
       </c>
       <c r="O34" s="2">
+        <v>50</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C35" s="2">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>83</v>
@@ -2932,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>140</v>
@@ -2959,27 +3082,33 @@
         <v>150</v>
       </c>
       <c r="O35" s="2">
+        <v>51</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C36" s="2">
-        <v>87</v>
+        <v>16.75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>140</v>
@@ -3006,18 +3135,24 @@
         <v>150</v>
       </c>
       <c r="O36" s="2">
+        <v>52</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.0057</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.095475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C37" s="2">
-        <v>16.75</v>
+        <v>2.04</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>90</v>
@@ -3053,27 +3188,33 @@
         <v>150</v>
       </c>
       <c r="O37" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>53</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.0057</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.011628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>2.04</v>
+        <v>165.69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>140</v>
@@ -3100,18 +3241,24 @@
         <v>150</v>
       </c>
       <c r="O38" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>54</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.232558139534884</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>38.5325581395349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>165.69</v>
+        <v>108.34</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>91</v>
@@ -3147,33 +3294,39 @@
         <v>150</v>
       </c>
       <c r="O39" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.232558139534884</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>25.1953488372093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>108.34</v>
+        <v>12365.32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>147</v>
@@ -3194,33 +3347,39 @@
         <v>150</v>
       </c>
       <c r="O40" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>6182.66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="C41" s="2">
+        <v>155.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>147</v>
@@ -3241,27 +3400,33 @@
         <v>150</v>
       </c>
       <c r="O41" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>57</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>38.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
-        <v>155.5</v>
+        <v>51.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>140</v>
@@ -3288,18 +3453,24 @@
         <v>150</v>
       </c>
       <c r="O42" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>58</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2">
-        <v>51.5</v>
+        <v>3.5</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>93</v>
@@ -3335,30 +3506,36 @@
         <v>150</v>
       </c>
       <c r="O43" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2">
-        <v>3.5</v>
+        <v>42.95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>143</v>
@@ -3382,18 +3559,24 @@
         <v>150</v>
       </c>
       <c r="O44" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2">
-        <v>42.95</v>
+        <v>255.46</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>83</v>
@@ -3402,7 +3585,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>141</v>
@@ -3429,27 +3612,33 @@
         <v>150</v>
       </c>
       <c r="O45" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>255.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2">
-        <v>255.46</v>
+        <v>99.98</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>141</v>
@@ -3476,18 +3665,24 @@
         <v>150</v>
       </c>
       <c r="O46" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2">
-        <v>99.98</v>
+        <v>97.86</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>83</v>
@@ -3496,7 +3691,7 @@
         <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>141</v>
@@ -3523,27 +3718,33 @@
         <v>150</v>
       </c>
       <c r="O47" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2">
-        <v>97.86</v>
+        <v>65.45</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>141</v>
@@ -3570,33 +3771,39 @@
         <v>150</v>
       </c>
       <c r="O48" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>64</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2">
-        <v>65.45</v>
+        <v>354.26</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>143</v>
+      <c r="H49" s="2">
+        <v>321000</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>147</v>
@@ -3617,18 +3824,24 @@
         <v>150</v>
       </c>
       <c r="O49" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>65</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>35.426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2">
-        <v>354.26</v>
+        <v>257</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>94</v>
@@ -3643,7 +3856,7 @@
         <v>141</v>
       </c>
       <c r="H50" s="2">
-        <v>321000</v>
+        <v>233000</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>147</v>
@@ -3664,33 +3877,39 @@
         <v>150</v>
       </c>
       <c r="O50" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>66</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2">
-        <v>257</v>
+        <v>276.5</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H51" s="2">
-        <v>233000</v>
+        <v>250000</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>147</v>
@@ -3711,33 +3930,39 @@
         <v>150</v>
       </c>
       <c r="O51" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>67</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>27.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2">
-        <v>276.5</v>
+        <v>105.55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" s="2">
-        <v>250000</v>
+        <v>159644</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>147</v>
@@ -3758,18 +3983,24 @@
         <v>150</v>
       </c>
       <c r="O52" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>52.775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2">
-        <v>105.55</v>
+        <v>54.35</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>88</v>
@@ -3778,13 +4009,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H53" s="2">
-        <v>159644</v>
+        <v>82204</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>147</v>
@@ -3805,18 +4036,24 @@
         <v>150</v>
       </c>
       <c r="O53" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>27.175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2">
-        <v>54.35</v>
+        <v>299.07</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>88</v>
@@ -3825,13 +4062,13 @@
         <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H54" s="2">
-        <v>82204</v>
+        <v>452343</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>147</v>
@@ -3852,18 +4089,24 @@
         <v>150</v>
       </c>
       <c r="O54" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>149.535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2">
-        <v>299.07</v>
+        <v>190.16</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>88</v>
@@ -3878,7 +4121,7 @@
         <v>140</v>
       </c>
       <c r="H55" s="2">
-        <v>452343</v>
+        <v>287617</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>147</v>
@@ -3899,33 +4142,39 @@
         <v>150</v>
       </c>
       <c r="O55" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>95.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2">
-        <v>190.16</v>
+        <v>196.7</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H56" s="2">
-        <v>287617</v>
+        <v>4313877</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>147</v>
@@ -3946,15 +4195,21 @@
         <v>150</v>
       </c>
       <c r="O56" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>98.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2">
         <v>196.7</v>
@@ -3963,7 +4218,7 @@
         <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>133</v>
@@ -3993,33 +4248,39 @@
         <v>150</v>
       </c>
       <c r="O57" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>75</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>98.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2">
-        <v>196.7</v>
+        <v>117.25</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H58" s="2">
-        <v>4313877</v>
+        <v>2571439</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>147</v>
@@ -4040,15 +4301,21 @@
         <v>150</v>
       </c>
       <c r="O58" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>76</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>58.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2">
         <v>117.25</v>
@@ -4057,10 +4324,10 @@
         <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>140</v>
@@ -4087,24 +4354,30 @@
         <v>150</v>
       </c>
       <c r="O59" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>58.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2">
-        <v>117.25</v>
+        <v>32.61</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>133</v>
@@ -4113,7 +4386,7 @@
         <v>140</v>
       </c>
       <c r="H60" s="2">
-        <v>2571439</v>
+        <v>715178</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>147</v>
@@ -4134,15 +4407,21 @@
         <v>150</v>
       </c>
       <c r="O60" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>16.305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2">
         <v>32.61</v>
@@ -4151,7 +4430,7 @@
         <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>133</v>
@@ -4181,33 +4460,39 @@
         <v>150</v>
       </c>
       <c r="O61" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>79</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>16.305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2">
-        <v>32.61</v>
+        <v>1892.13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="2">
-        <v>715178</v>
+      <c r="H62" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>147</v>
@@ -4228,33 +4513,39 @@
         <v>150</v>
       </c>
       <c r="O62" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>473.0325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2">
-        <v>1892.13</v>
+        <v>20943</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>147</v>
@@ -4275,33 +4566,39 @@
         <v>150</v>
       </c>
       <c r="O63" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>11518.65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2">
-        <v>20943</v>
+        <v>14159</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="H64" s="2">
+        <v>42915413</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>147</v>
@@ -4322,33 +4619,39 @@
         <v>150</v>
       </c>
       <c r="O64" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>82</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>4719.66666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2">
-        <v>14159</v>
+        <v>465.88</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H65" s="2">
-        <v>42915413</v>
+        <v>2842951</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>147</v>
@@ -4369,18 +4672,24 @@
         <v>150</v>
       </c>
       <c r="O65" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>83</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>173.350697674419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="2">
-        <v>465.88</v>
+        <v>712.52</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>97</v>
@@ -4395,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="H66" s="2">
-        <v>2842951</v>
+        <v>4348029</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>147</v>
@@ -4416,21 +4725,27 @@
         <v>150</v>
       </c>
       <c r="O66" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>84</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>265.123720930233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2">
-        <v>712.52</v>
+        <v>583.21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>102</v>
@@ -4442,7 +4757,7 @@
         <v>142</v>
       </c>
       <c r="H67" s="2">
-        <v>4348029</v>
+        <v>3615902</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>147</v>
@@ -4463,18 +4778,24 @@
         <v>150</v>
       </c>
       <c r="O67" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>85</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>194.403333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" s="2">
-        <v>583.21</v>
+        <v>20.58</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>96</v>
@@ -4489,7 +4810,7 @@
         <v>142</v>
       </c>
       <c r="H68" s="2">
-        <v>3615902</v>
+        <v>120050</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>147</v>
@@ -4510,18 +4831,24 @@
         <v>150</v>
       </c>
       <c r="O68" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>86</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2">
-        <v>20.58</v>
+        <v>39.47</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>96</v>
@@ -4536,7 +4863,7 @@
         <v>142</v>
       </c>
       <c r="H69" s="2">
-        <v>120050</v>
+        <v>230242</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>147</v>
@@ -4557,33 +4884,39 @@
         <v>150</v>
       </c>
       <c r="O69" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>87</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>13.1566666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70" s="2">
-        <v>39.47</v>
+        <v>23.77</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H70" s="2">
-        <v>230242</v>
+        <v>118863</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>147</v>
@@ -4604,33 +4937,39 @@
         <v>150</v>
       </c>
       <c r="O70" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>88</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.285745710514738</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>6.79217553893533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2">
-        <v>23.77</v>
+        <v>285.12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H71" s="2">
-        <v>118863</v>
+        <v>1425757</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>147</v>
@@ -4651,24 +4990,30 @@
         <v>150</v>
       </c>
       <c r="O71" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.285745710514738</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>81.4718169819622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="2">
-        <v>285.12</v>
+        <v>136.03</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>138</v>
@@ -4677,7 +5022,7 @@
         <v>142</v>
       </c>
       <c r="H72" s="2">
-        <v>1425757</v>
+        <v>680225</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>147</v>
@@ -4698,24 +5043,30 @@
         <v>150</v>
       </c>
       <c r="O72" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>92</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.285745710514738</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>38.8699890013198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2">
-        <v>136.03</v>
+        <v>5.58</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>138</v>
@@ -4724,7 +5075,7 @@
         <v>142</v>
       </c>
       <c r="H73" s="2">
-        <v>680225</v>
+        <v>32550</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>147</v>
@@ -4745,21 +5096,27 @@
         <v>150</v>
       </c>
       <c r="O73" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>93</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2">
-        <v>5.58</v>
+        <v>40.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -4771,7 +5128,7 @@
         <v>142</v>
       </c>
       <c r="H74" s="2">
-        <v>32550</v>
+        <v>202522</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>147</v>
@@ -4792,54 +5149,13 @@
         <v>150</v>
       </c>
       <c r="O74" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1">
         <v>94</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="2">
-        <v>202522</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1765</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O75" s="2">
-        <v>94</v>
+      <c r="P74" s="2">
+        <v>0.285745710514738</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>11.5727012758469</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +5165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4859,34 +5175,34 @@
       <c r="B1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>152</v>
+      <c r="C1" s="1">
+        <v>126.7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2">
-        <v>126.7</v>
+        <v>166.3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>83</v>
@@ -4895,7 +5211,7 @@
         <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>140</v>
@@ -4906,13 +5222,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2">
-        <v>166.3</v>
+        <v>4758.2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>83</v>
@@ -4921,10 +5237,10 @@
         <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>143</v>
@@ -4932,13 +5248,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2">
-        <v>4758.2</v>
+        <v>1160.1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>83</v>
@@ -4947,10 +5263,10 @@
         <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>143</v>
@@ -4958,13 +5274,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1160.1</v>
+        <v>155</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>83</v>
@@ -4973,24 +5289,24 @@
         <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="C6" s="2">
+        <v>143.9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -4999,24 +5315,24 @@
         <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2">
-        <v>143.9</v>
+        <v>94.7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>83</v>
@@ -5025,50 +5341,50 @@
         <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2">
-        <v>94.7</v>
+        <v>127.9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2">
-        <v>127.9</v>
+        <v>217.4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>83</v>
@@ -5077,7 +5393,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>140</v>
@@ -5088,13 +5404,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2">
-        <v>217.4</v>
+        <v>133.7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>83</v>
@@ -5114,13 +5430,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2">
-        <v>133.7</v>
+        <v>150.9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>83</v>
@@ -5129,7 +5445,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>140</v>
@@ -5140,53 +5456,27 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2">
-        <v>150.9</v>
+        <v>1240.85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1240.85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5197,7 +5487,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5205,424 +5495,401 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>99</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1488856</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1488856</v>
+        <v>1822120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1822120</v>
+        <v>400172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>400172</v>
+        <v>4805165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>555853.87</v>
+      </c>
       <c r="G5" s="2">
-        <v>4805165</v>
+        <v>2138925.69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="2">
-        <v>555853.87</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2138925.69</v>
+        <v>3569474</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3569474</v>
+        <v>6294755</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>6294755</v>
+        <v>323475</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>323475</v>
+        <v>4113758</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>4113758</v>
+        <v>7654933</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>7654933</v>
+        <v>1282627</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>167.27</v>
+      </c>
       <c r="G12" s="2">
-        <v>1282627</v>
+        <v>4960.39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="2">
-        <v>167.27</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>4960.39</v>
+        <v>658634</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>658634</v>
+        <v>281408</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>281408</v>
+        <v>1840646</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1840646</v>
+        <v>671881</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>671881</v>
+        <v>128829</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>128829</v>
+        <v>658057</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>658057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>154</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
         <v>105522</v>
       </c>
     </row>
@@ -5633,7 +5900,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5647,16 +5914,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -5682,28 +5949,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>148</v>
@@ -5721,33 +5988,33 @@
         <v>150</v>
       </c>
       <c r="N2" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>10400</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2">
-        <v>200000</v>
+        <v>104000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>148</v>
@@ -5765,33 +6032,33 @@
         <v>150</v>
       </c>
       <c r="N3" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2">
-        <v>104000</v>
+        <v>101000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>148</v>
@@ -5809,33 +6076,33 @@
         <v>150</v>
       </c>
       <c r="N4" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="2">
-        <v>10100</v>
+        <v>6642</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2">
-        <v>101000</v>
+        <v>66420</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>148</v>
@@ -5853,33 +6120,33 @@
         <v>150</v>
       </c>
       <c r="N5" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="2">
-        <v>6642</v>
+        <v>67001</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G6" s="2">
-        <v>66420</v>
+        <v>670010</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>148</v>
@@ -5897,33 +6164,33 @@
         <v>150</v>
       </c>
       <c r="N6" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <v>67001</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G7" s="2">
-        <v>670010</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>148</v>
@@ -5941,33 +6208,33 @@
         <v>150</v>
       </c>
       <c r="N7" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G8" s="2">
-        <v>20000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>148</v>
@@ -5985,33 +6252,33 @@
         <v>150</v>
       </c>
       <c r="N8" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="2">
-        <v>45000</v>
+        <v>11324</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G9" s="2">
-        <v>450000</v>
+        <v>113240</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>148</v>
@@ -6029,33 +6296,33 @@
         <v>150</v>
       </c>
       <c r="N9" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>11324</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
+        <v>10150</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G10" s="2">
-        <v>113240</v>
+        <v>101500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>148</v>
@@ -6073,33 +6340,33 @@
         <v>150</v>
       </c>
       <c r="N10" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>10150</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>19000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G11" s="2">
-        <v>101500</v>
+        <v>190000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>148</v>
@@ -6117,33 +6384,33 @@
         <v>150</v>
       </c>
       <c r="N11" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="2">
-        <v>19000</v>
+        <v>20487</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G12" s="2">
-        <v>190000</v>
+        <v>204870</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>148</v>
@@ -6161,33 +6428,33 @@
         <v>150</v>
       </c>
       <c r="N12" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="2">
-        <v>20487</v>
+        <v>28600</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G13" s="2">
-        <v>204870</v>
+        <v>286000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>148</v>
@@ -6205,50 +6472,6 @@
         <v>150</v>
       </c>
       <c r="N13" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>173</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>28600</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="2">
-        <v>286000</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1765</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N14" s="2">
         <v>173</v>
       </c>
     </row>
@@ -6259,7 +6482,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6267,500 +6490,500 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>210</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>232</v>
@@ -6769,75 +6992,58 @@
         <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>231</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6847,7 +7053,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6855,68 +7061,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
+      </c>
+      <c r="E1" s="1">
+        <v>154840749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2">
-        <v>154840749</v>
+        <v>8198000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>237</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8198000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6926,7 +7109,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6934,137 +7117,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>305</v>
+        <v>279</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E3" s="2">
-        <v>20000000</v>
+        <v>4311869</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4311869</v>
+        <v>280</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>306</v>
+        <v>273</v>
+      </c>
+      <c r="E5" s="2">
+        <v>647521</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>252</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="2">
-        <v>647521</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="285">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區仁愛段一小段03400000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區仁愛段一小段03430000地號</t>
   </si>
   <si>
@@ -508,9 +511,6 @@
     <t>屏東縣東港鎮興東里新興二街</t>
   </si>
   <si>
-    <t>■726.80</t>
-  </si>
-  <si>
     <t>100000分之50000</t>
   </si>
   <si>
@@ -607,6 +607,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>宏達國際電子股份有限公司</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -632,9 +635,6 @@
   </si>
   <si>
     <t>兆豐金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>宏達國際電子股份有限公司</t>
   </si>
   <si>
     <t>奇美電子股份有限公司</t>
@@ -1233,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1300,40 +1300,40 @@
         <v>8.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M2" s="2">
         <v>1765</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.125</v>
@@ -1344,1394 +1344,1394 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>8.37</v>
+        <v>8.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2">
         <v>1765</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.125</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.04625</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>14.86</v>
+        <v>8.37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2">
         <v>1765</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0044</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.065384</v>
+        <v>1.04625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>125.54</v>
+        <v>14.86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2">
         <v>1765</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.181428571428571</v>
+        <v>0.0044</v>
       </c>
       <c r="Q5" s="2">
-        <v>22.7765428571429</v>
+        <v>0.065384</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>0.44</v>
+        <v>125.54</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2">
         <v>1765</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0571051473823141</v>
+        <v>0.181428571428571</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0251262648482182</v>
+        <v>22.7765428571429</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2.31</v>
+        <v>0.44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2">
         <v>1765</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.0571051473823141</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.131912890453146</v>
+        <v>0.0251262648482182</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>341.39</v>
+        <v>2.31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2">
         <v>1765</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0.0571051473823141</v>
       </c>
       <c r="Q8" s="2">
-        <v>341.39</v>
+        <v>0.131912890453146</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>189.07</v>
+        <v>341.39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2">
         <v>1765</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>189.07</v>
+        <v>341.39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>292.56</v>
+        <v>189.07</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2">
         <v>1765</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>292.56</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>3.82</v>
+        <v>292.56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2">
         <v>1765</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>3.82</v>
+        <v>292.56</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>831.12</v>
+        <v>3.82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="2">
         <v>1765</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>831.12</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>123</v>
+        <v>831.12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2">
         <v>1765</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>123</v>
+        <v>831.12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>97.83</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2">
         <v>1765</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>97.83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>617.3</v>
+        <v>97.83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="2">
         <v>1765</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O15" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>617.3</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>1.86</v>
+        <v>617.3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="2">
         <v>1765</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.86</v>
+        <v>617.3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>97.82</v>
+        <v>1.86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="2">
         <v>1765</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>97.82</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>97.86</v>
+        <v>97.82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="2">
         <v>1765</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>97.86</v>
+        <v>97.82</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>35.04</v>
+        <v>97.86</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="2">
         <v>1765</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>8.76</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>7.76</v>
+        <v>35.04</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2">
         <v>1765</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
-        <v>0.0571051473823141</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.443135943686758</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>16.28</v>
+        <v>7.76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2">
         <v>1765</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
         <v>0.0571051473823141</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.929671799384074</v>
+        <v>0.443135943686758</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>1.35</v>
+        <v>16.28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M22" s="2">
         <v>1765</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
         <v>0.0571051473823141</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.0770919489661241</v>
+        <v>0.929671799384074</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2100</v>
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M23" s="2">
         <v>1765</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="2">
-        <v>0.00862068965517241</v>
+        <v>0.0571051473823141</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.00120689655172414</v>
+        <v>0.0770919489661241</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>18.09</v>
+        <v>0.14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="2">
-        <v>271350</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" s="2">
         <v>1765</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2">
-        <v>0.00737</v>
+        <v>0.00862068965517241</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.1333233</v>
+        <v>0.00120689655172414</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>0.29</v>
+        <v>18.09</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="2">
-        <v>4350</v>
+        <v>271350</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M25" s="2">
         <v>1765</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2">
-        <v>0.00862068965517241</v>
+        <v>0.00737</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.0025</v>
+        <v>0.1333233</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>211.26</v>
+        <v>0.29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4350</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="2">
         <v>1765</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2">
-        <v>0.296511627906977</v>
+        <v>0.00862068965517241</v>
       </c>
       <c r="Q26" s="2">
-        <v>62.6410465116279</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>138.13</v>
+        <v>211.26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M27" s="2">
         <v>1765</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2">
         <v>0.296511627906977</v>
       </c>
       <c r="Q27" s="2">
-        <v>40.9571511627907</v>
+        <v>62.6410465116279</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>12365.32</v>
+        <v>138.13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="2">
-        <v>9000000</v>
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="2">
         <v>1765</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" s="2">
-        <v>0.5</v>
+        <v>0.296511627906977</v>
       </c>
       <c r="Q28" s="2">
-        <v>6182.66</v>
+        <v>40.9571511627907</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>23.25</v>
+        <v>12365.32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>100</v>
@@ -2740,899 +2740,899 @@
         <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="H29" s="2">
+        <v>9000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M29" s="2">
         <v>1765</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q29" s="2">
-        <v>5.8125</v>
+        <v>6182.66</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>6.5</v>
+        <v>23.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="2">
         <v>1765</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2">
         <v>0.25</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.625</v>
+        <v>5.8125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M31" s="2">
         <v>1765</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O31" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P31" s="2">
         <v>0.25</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.4375</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>6.75</v>
+        <v>1.75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M32" s="2">
         <v>1765</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2">
         <v>0.25</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.6875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>32.93</v>
+        <v>6.75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M33" s="2">
         <v>1765</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O33" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2">
-        <v>0.055359246171967</v>
+        <v>0.25</v>
       </c>
       <c r="Q33" s="2">
-        <v>1.82297997644287</v>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>108</v>
+        <v>32.93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M34" s="2">
         <v>1765</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O34" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0.055359246171967</v>
       </c>
       <c r="Q34" s="2">
-        <v>108</v>
+        <v>1.82297997644287</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M35" s="2">
         <v>1765</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O35" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="2">
-        <v>16.75</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2">
         <v>1765</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O36" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P36" s="2">
-        <v>0.0057</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.095475</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>2.04</v>
+        <v>16.75</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M37" s="2">
         <v>1765</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O37" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" s="2">
         <v>0.0057</v>
       </c>
       <c r="Q37" s="2">
-        <v>0.011628</v>
+        <v>0.095475</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2">
-        <v>165.69</v>
+        <v>2.04</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M38" s="2">
         <v>1765</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O38" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" s="2">
-        <v>0.232558139534884</v>
+        <v>0.0057</v>
       </c>
       <c r="Q38" s="2">
-        <v>38.5325581395349</v>
+        <v>0.011628</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>108.34</v>
+        <v>165.69</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M39" s="2">
         <v>1765</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O39" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="2">
         <v>0.232558139534884</v>
       </c>
       <c r="Q39" s="2">
-        <v>25.1953488372093</v>
+        <v>38.5325581395349</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>12365.32</v>
+        <v>108.34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>144</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M40" s="2">
         <v>1765</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O40" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P40" s="2">
-        <v>0.5</v>
+        <v>0.232558139534884</v>
       </c>
       <c r="Q40" s="2">
-        <v>6182.66</v>
+        <v>25.1953488372093</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>155.5</v>
+        <v>12365.32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M41" s="2">
         <v>1765</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O41" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="2">
-        <v>38.875</v>
+        <v>6182.66</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="2">
-        <v>51.5</v>
+        <v>155.5</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M42" s="2">
         <v>1765</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O42" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P42" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q42" s="2">
-        <v>25.75</v>
+        <v>38.875</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="2">
-        <v>3.5</v>
+        <v>51.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M43" s="2">
         <v>1765</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O43" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P43" s="2">
         <v>0.5</v>
       </c>
       <c r="Q43" s="2">
-        <v>1.75</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="2">
-        <v>42.95</v>
+        <v>3.5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M44" s="2">
         <v>1765</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O44" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" s="2">
-        <v>42.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2">
-        <v>255.46</v>
+        <v>42.95</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M45" s="2">
         <v>1765</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O45" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="2">
         <v>1</v>
       </c>
       <c r="Q45" s="2">
-        <v>255.46</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="2">
-        <v>99.98</v>
+        <v>255.46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -3641,104 +3641,104 @@
         <v>126</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M46" s="2">
         <v>1765</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O46" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P46" s="2">
         <v>1</v>
       </c>
       <c r="Q46" s="2">
-        <v>99.98</v>
+        <v>255.46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2">
-        <v>97.86</v>
+        <v>99.98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M47" s="2">
         <v>1765</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O47" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P47" s="2">
         <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>97.86</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="2">
-        <v>65.45</v>
+        <v>97.86</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>103</v>
@@ -3747,508 +3747,508 @@
         <v>128</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M48" s="2">
         <v>1765</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" s="2">
-        <v>65.45</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="2">
-        <v>354.26</v>
+        <v>65.45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="2">
-        <v>321000</v>
+        <v>142</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M49" s="2">
         <v>1765</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P49" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="2">
-        <v>35.426</v>
+        <v>65.45</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="2">
-        <v>257</v>
+        <v>354.26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H50" s="2">
-        <v>233000</v>
+        <v>321000</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M50" s="2">
         <v>1765</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P50" s="2">
         <v>0.1</v>
       </c>
       <c r="Q50" s="2">
-        <v>25.7</v>
+        <v>35.426</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="2">
-        <v>276.5</v>
+        <v>257</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" s="2">
-        <v>250000</v>
+        <v>233000</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M51" s="2">
         <v>1765</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P51" s="2">
         <v>0.1</v>
       </c>
       <c r="Q51" s="2">
-        <v>27.65</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="2">
-        <v>105.55</v>
+        <v>276.5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H52" s="2">
-        <v>159644</v>
+        <v>250000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M52" s="2">
         <v>1765</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P52" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q52" s="2">
-        <v>52.775</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="2">
-        <v>54.35</v>
+        <v>105.55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="2">
-        <v>82204</v>
+        <v>159644</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M53" s="2">
         <v>1765</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O53" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P53" s="2">
         <v>0.5</v>
       </c>
       <c r="Q53" s="2">
-        <v>27.175</v>
+        <v>52.775</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C54" s="2">
-        <v>299.07</v>
+        <v>54.35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H54" s="2">
-        <v>452343</v>
+        <v>82204</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M54" s="2">
         <v>1765</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O54" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P54" s="2">
         <v>0.5</v>
       </c>
       <c r="Q54" s="2">
-        <v>149.535</v>
+        <v>27.175</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="2">
-        <v>190.16</v>
+        <v>299.07</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H55" s="2">
-        <v>287617</v>
+        <v>452343</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M55" s="2">
         <v>1765</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O55" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P55" s="2">
         <v>0.5</v>
       </c>
       <c r="Q55" s="2">
-        <v>95.08</v>
+        <v>149.535</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="2">
-        <v>196.7</v>
+        <v>190.16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H56" s="2">
-        <v>4313877</v>
+        <v>287617</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M56" s="2">
         <v>1765</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O56" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P56" s="2">
         <v>0.5</v>
       </c>
       <c r="Q56" s="2">
-        <v>98.35</v>
+        <v>95.08</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2">
         <v>196.7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H57" s="2">
         <v>4313877</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M57" s="2">
         <v>1765</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O57" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P57" s="2">
         <v>0.5</v>
@@ -4259,102 +4259,102 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="2">
-        <v>117.25</v>
+        <v>196.7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H58" s="2">
-        <v>2571439</v>
+        <v>4313877</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M58" s="2">
         <v>1765</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O58" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P58" s="2">
         <v>0.5</v>
       </c>
       <c r="Q58" s="2">
-        <v>58.625</v>
+        <v>98.35</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2">
         <v>117.25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H59" s="2">
         <v>2571439</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M59" s="2">
         <v>1765</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O59" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P59" s="2">
         <v>0.5</v>
@@ -4365,102 +4365,102 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2">
-        <v>32.61</v>
+        <v>117.25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H60" s="2">
-        <v>715178</v>
+        <v>2571439</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M60" s="2">
         <v>1765</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O60" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P60" s="2">
         <v>0.5</v>
       </c>
       <c r="Q60" s="2">
-        <v>16.305</v>
+        <v>58.625</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2">
         <v>32.61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H61" s="2">
         <v>715178</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M61" s="2">
         <v>1765</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O61" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2">
         <v>0.5</v>
@@ -4471,69 +4471,69 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="2">
-        <v>1892.13</v>
+        <v>32.61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="H62" s="2">
+        <v>715178</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M62" s="2">
         <v>1765</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O62" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P62" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q62" s="2">
-        <v>473.0325</v>
+        <v>16.305</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="2">
-        <v>20943</v>
+        <v>1892.13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>100</v>
@@ -4542,619 +4542,672 @@
         <v>136</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M63" s="2">
         <v>1765</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O63" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P63" s="2">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="Q63" s="2">
-        <v>11518.65</v>
+        <v>473.0325</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="2">
-        <v>14159</v>
+        <v>20943</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H64" s="2">
-        <v>42915413</v>
+        <v>141</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M64" s="2">
         <v>1765</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O64" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P64" s="2">
-        <v>0.333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="Q64" s="2">
-        <v>4719.66666666667</v>
+        <v>11518.65</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2">
-        <v>465.88</v>
+        <v>14159</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H65" s="2">
-        <v>2842951</v>
+        <v>42915413</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M65" s="2">
         <v>1765</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O65" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P65" s="2">
-        <v>0.372093023255814</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q65" s="2">
-        <v>173.350697674419</v>
+        <v>4719.66666666667</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2">
-        <v>712.52</v>
+        <v>465.88</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H66" s="2">
-        <v>4348029</v>
+        <v>2842951</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M66" s="2">
         <v>1765</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O66" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P66" s="2">
         <v>0.372093023255814</v>
       </c>
       <c r="Q66" s="2">
-        <v>265.123720930233</v>
+        <v>173.350697674419</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
-        <v>583.21</v>
+        <v>712.52</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H67" s="2">
-        <v>3615902</v>
+        <v>4348029</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M67" s="2">
         <v>1765</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O67" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P67" s="2">
-        <v>0.333333333333333</v>
+        <v>0.372093023255814</v>
       </c>
       <c r="Q67" s="2">
-        <v>194.403333333333</v>
+        <v>265.123720930233</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C68" s="2">
-        <v>20.58</v>
+        <v>583.21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H68" s="2">
-        <v>120050</v>
+        <v>3615902</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M68" s="2">
         <v>1765</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O68" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P68" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q68" s="2">
-        <v>6.86</v>
+        <v>194.403333333333</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="2">
-        <v>39.47</v>
+        <v>20.58</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H69" s="2">
-        <v>230242</v>
+        <v>120050</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M69" s="2">
         <v>1765</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O69" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P69" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q69" s="2">
-        <v>13.1566666666667</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="2">
-        <v>23.77</v>
+        <v>39.47</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H70" s="2">
-        <v>118863</v>
+        <v>230242</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M70" s="2">
         <v>1765</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O70" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P70" s="2">
-        <v>0.285745710514738</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q70" s="2">
-        <v>6.79217553893533</v>
+        <v>13.1566666666667</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2">
-        <v>285.12</v>
+        <v>23.77</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H71" s="2">
-        <v>1425757</v>
+        <v>118863</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M71" s="2">
         <v>1765</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O71" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P71" s="2">
         <v>0.285745710514738</v>
       </c>
       <c r="Q71" s="2">
-        <v>81.4718169819622</v>
+        <v>6.79217553893533</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2">
-        <v>136.03</v>
+        <v>285.12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H72" s="2">
-        <v>680225</v>
+        <v>1425757</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M72" s="2">
         <v>1765</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O72" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P72" s="2">
         <v>0.285745710514738</v>
       </c>
       <c r="Q72" s="2">
-        <v>38.8699890013198</v>
+        <v>81.4718169819622</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2">
-        <v>5.58</v>
+        <v>136.03</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H73" s="2">
-        <v>32550</v>
+        <v>680225</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M73" s="2">
         <v>1765</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O73" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P73" s="2">
-        <v>0.333333333333333</v>
+        <v>0.285745710514738</v>
       </c>
       <c r="Q73" s="2">
-        <v>1.86</v>
+        <v>38.8699890013198</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="2">
+        <v>32550</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O74" s="2">
+        <v>93</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2">
         <v>40.5</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="D75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="2">
         <v>202522</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1765</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O74" s="2">
+      <c r="I75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O75" s="2">
         <v>94</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P75" s="2">
         <v>0.285745710514738</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q75" s="2">
         <v>11.5727012758469</v>
       </c>
     </row>
@@ -5165,319 +5218,696 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="1">
-        <v>126.7</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C2" s="2">
-        <v>166.3</v>
+        <v>126.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="2">
         <v>99</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C3" s="2">
-        <v>4758.2</v>
+        <v>166.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>166.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C4" s="2">
-        <v>1160.1</v>
+        <v>4758.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4758.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>162</v>
+      <c r="C5" s="2">
+        <v>1160.1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="2">
+        <v>102</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1160.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="2">
-        <v>143.9</v>
+        <v>726.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="2">
+        <v>103</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>726.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="2">
-        <v>94.7</v>
+        <v>143.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="2">
+        <v>104</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="2">
-        <v>127.9</v>
+        <v>94.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="2">
+        <v>105</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="2">
+        <v>127.9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="2">
+        <v>106</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2">
         <v>217.4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="2">
+        <v>107</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>217.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>108</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="2">
-        <v>133.7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="2">
-        <v>150.9</v>
+        <v>133.7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2">
+        <v>108</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>133.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="2">
+        <v>150.9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="2">
+        <v>109</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="2">
         <v>1240.85</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>143</v>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="2">
+        <v>110</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>620.425</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +5917,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5504,7 +5934,7 @@
         <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -5513,10 +5943,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>174</v>
@@ -5525,19 +5955,19 @@
         <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1822120</v>
+        <v>1488856</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>174</v>
@@ -5546,19 +5976,19 @@
         <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>400172</v>
+        <v>1822120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>174</v>
@@ -5567,63 +5997,63 @@
         <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>4805165</v>
+        <v>400172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2">
-        <v>555853.87</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2138925.69</v>
+        <v>4805165</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>555853.87</v>
+      </c>
       <c r="G6" s="2">
-        <v>3569474</v>
+        <v>2138925.69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>174</v>
@@ -5632,19 +6062,19 @@
         <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>6294755</v>
+        <v>3569474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>174</v>
@@ -5653,61 +6083,61 @@
         <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>323475</v>
+        <v>6294755</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>4113758</v>
+        <v>323475</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>7654933</v>
+        <v>4113758</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>174</v>
@@ -5716,60 +6146,60 @@
         <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1282627</v>
+        <v>7654933</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="2">
-        <v>167.27</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>4960.39</v>
+        <v>1282627</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>167.27</v>
+      </c>
       <c r="G13" s="2">
-        <v>658634</v>
+        <v>4960.39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>181</v>
@@ -5785,15 +6215,15 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>281408</v>
+        <v>658634</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>174</v>
@@ -5802,61 +6232,61 @@
         <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1840646</v>
+        <v>281408</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>671881</v>
+        <v>1840646</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>128829</v>
+        <v>671881</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>174</v>
@@ -5865,31 +6295,52 @@
         <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>658057</v>
+        <v>128829</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
+        <v>658057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>105522</v>
       </c>
     </row>
@@ -5900,7 +6351,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5949,7 +6400,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>195</v>
@@ -5958,7 +6409,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>20000</v>
+        <v>48000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -5967,42 +6418,42 @@
         <v>175</v>
       </c>
       <c r="G2" s="2">
-        <v>200000</v>
+        <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" s="2">
         <v>1765</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -6011,42 +6462,42 @@
         <v>175</v>
       </c>
       <c r="G3" s="2">
-        <v>104000</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" s="2">
         <v>1765</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N3" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -6055,42 +6506,42 @@
         <v>175</v>
       </c>
       <c r="G4" s="2">
-        <v>101000</v>
+        <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2">
         <v>1765</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N4" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2">
-        <v>6642</v>
+        <v>10100</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -6099,42 +6550,42 @@
         <v>175</v>
       </c>
       <c r="G5" s="2">
-        <v>66420</v>
+        <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2">
         <v>1765</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N5" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2">
-        <v>67001</v>
+        <v>6642</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -6143,42 +6594,42 @@
         <v>175</v>
       </c>
       <c r="G6" s="2">
-        <v>670010</v>
+        <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2">
         <v>1765</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N6" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2">
-        <v>2000</v>
+        <v>67001</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -6187,42 +6638,42 @@
         <v>175</v>
       </c>
       <c r="G7" s="2">
-        <v>20000</v>
+        <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="2">
         <v>1765</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N7" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2">
-        <v>45000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -6231,42 +6682,42 @@
         <v>175</v>
       </c>
       <c r="G8" s="2">
-        <v>450000</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2">
         <v>1765</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N8" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2">
-        <v>11324</v>
+        <v>45000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -6275,130 +6726,130 @@
         <v>175</v>
       </c>
       <c r="G9" s="2">
-        <v>113240</v>
+        <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2">
         <v>1765</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N9" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
-        <v>10150</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>207</v>
+        <v>11324</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="2">
-        <v>101500</v>
+        <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" s="2">
         <v>1765</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N10" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2">
-        <v>19000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
+        <v>10150</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="2">
-        <v>190000</v>
+        <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2">
         <v>1765</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2">
-        <v>20487</v>
+        <v>19000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -6407,42 +6858,42 @@
         <v>175</v>
       </c>
       <c r="G12" s="2">
-        <v>204870</v>
+        <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" s="2">
         <v>1765</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2">
-        <v>28600</v>
+        <v>20487</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -6451,27 +6902,71 @@
         <v>175</v>
       </c>
       <c r="G13" s="2">
-        <v>286000</v>
+        <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2">
         <v>1765</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>173</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28600</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="2">
+        <v>286000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="2">
         <v>173</v>
       </c>
     </row>
@@ -6482,7 +6977,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6496,7 +6991,7 @@
         <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>211</v>
@@ -6504,279 +6999,279 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>212</v>
@@ -6788,29 +7283,29 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>213</v>
@@ -6819,32 +7314,32 @@
         <v>225</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>213</v>
@@ -6853,32 +7348,32 @@
         <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>213</v>
@@ -6887,162 +7382,179 @@
         <v>227</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
+        <v>230</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>231</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7053,7 +7565,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7064,7 +7576,7 @@
         <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>268</v>
@@ -7081,24 +7593,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2">
-        <v>8198000</v>
+        <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>237</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8198000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7109,7 +7644,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7117,7 +7652,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>272</v>
@@ -7137,93 +7672,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20000000</v>
+        <v>273</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2">
-        <v>4311869</v>
+        <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>251</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>252</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>647521</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>276</v>
       </c>
     </row>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="286">
   <si>
     <t>name</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>1500000</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>第一商業銀行東港分行</t>
@@ -5300,7 +5303,7 @@
         <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>149</v>
@@ -5353,7 +5356,7 @@
         <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>149</v>
@@ -5406,7 +5409,7 @@
         <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>149</v>
@@ -5459,7 +5462,7 @@
         <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>149</v>
@@ -5512,7 +5515,7 @@
         <v>171</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>149</v>
@@ -5565,7 +5568,7 @@
         <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>149</v>
@@ -5618,7 +5621,7 @@
         <v>172</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>149</v>
@@ -5671,7 +5674,7 @@
         <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>149</v>
@@ -5724,7 +5727,7 @@
         <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>149</v>
@@ -5777,7 +5780,7 @@
         <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>149</v>
@@ -5830,7 +5833,7 @@
         <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>149</v>
@@ -5883,7 +5886,7 @@
         <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>149</v>
@@ -5925,13 +5928,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>100</v>
@@ -5946,13 +5949,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>100</v>
@@ -5967,13 +5970,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>100</v>
@@ -5988,13 +5991,13 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>100</v>
@@ -6009,13 +6012,13 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>100</v>
@@ -6030,13 +6033,13 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
@@ -6053,13 +6056,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>101</v>
@@ -6074,13 +6077,13 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>101</v>
@@ -6095,13 +6098,13 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
@@ -6116,13 +6119,13 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>103</v>
@@ -6137,13 +6140,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>100</v>
@@ -6158,13 +6161,13 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>100</v>
@@ -6179,13 +6182,13 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>100</v>
@@ -6202,13 +6205,13 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
@@ -6223,13 +6226,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>101</v>
@@ -6244,13 +6247,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>100</v>
@@ -6265,13 +6268,13 @@
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>100</v>
@@ -6286,13 +6289,13 @@
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>102</v>
@@ -6307,13 +6310,13 @@
         <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>101</v>
@@ -6328,13 +6331,13 @@
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>100</v>
@@ -6365,13 +6368,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6403,7 +6406,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
@@ -6415,13 +6418,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2">
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>149</v>
@@ -6447,7 +6450,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>101</v>
@@ -6459,13 +6462,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>149</v>
@@ -6491,7 +6494,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>101</v>
@@ -6503,13 +6506,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4" s="2">
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>149</v>
@@ -6535,7 +6538,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -6547,13 +6550,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2">
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>149</v>
@@ -6579,7 +6582,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>101</v>
@@ -6591,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2">
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>149</v>
@@ -6623,7 +6626,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -6635,13 +6638,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G7" s="2">
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>149</v>
@@ -6667,7 +6670,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>101</v>
@@ -6679,13 +6682,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G8" s="2">
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>149</v>
@@ -6711,7 +6714,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -6723,13 +6726,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>149</v>
@@ -6755,7 +6758,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>101</v>
@@ -6767,13 +6770,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G10" s="2">
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>149</v>
@@ -6799,7 +6802,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>101</v>
@@ -6808,16 +6811,16 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11" s="2">
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>149</v>
@@ -6843,7 +6846,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>101</v>
@@ -6855,13 +6858,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G12" s="2">
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>149</v>
@@ -6887,7 +6890,7 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>101</v>
@@ -6899,13 +6902,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13" s="2">
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>149</v>
@@ -6931,7 +6934,7 @@
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>101</v>
@@ -6943,13 +6946,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G14" s="2">
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>149</v>
@@ -6985,16 +6988,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7002,16 +7005,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7019,16 +7022,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7036,16 +7039,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7053,16 +7056,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7070,16 +7073,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7087,16 +7090,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7104,16 +7107,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7121,16 +7124,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7138,16 +7141,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7155,16 +7158,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7172,16 +7175,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7189,16 +7192,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7206,16 +7209,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7223,16 +7226,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7240,16 +7243,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7257,16 +7260,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7274,16 +7277,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7291,16 +7294,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7308,16 +7311,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7325,16 +7328,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7342,16 +7345,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7359,16 +7362,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7376,16 +7379,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7393,16 +7396,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7410,16 +7413,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7427,16 +7430,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7444,16 +7447,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7461,16 +7464,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7478,16 +7481,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7495,16 +7498,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7512,16 +7515,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7529,16 +7532,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7546,16 +7549,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7573,22 +7576,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1">
         <v>154840749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7596,22 +7599,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7619,22 +7622,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -7655,19 +7658,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7678,19 +7681,19 @@
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7701,19 +7704,19 @@
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7724,16 +7727,16 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>143</v>
@@ -7747,16 +7750,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>142</v>
@@ -7770,19 +7773,19 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="289">
   <si>
     <t>name</t>
   </si>
@@ -544,70 +544,79 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>第一商業銀行東港分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行東港分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東港分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行東港分行</t>
+  </si>
+  <si>
+    <t>東港郵局（第63支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行前金分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行潮州分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行萬華分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行屏東分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行東港分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東港分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行東港分行</t>
-  </si>
-  <si>
-    <t>東港郵局（第63支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行前金分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行潮州分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行萬華分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>宏達國際電子股份有限公司</t>
@@ -5920,13 +5929,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>174</v>
       </c>
@@ -5937,414 +5946,810 @@
         <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1488856</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1488856</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1822120</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>400172</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>4805165</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="2">
-        <v>555853.87</v>
-      </c>
-      <c r="G6" s="2">
         <v>2138925.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3569474</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>6294755</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>323475</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>4113758</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>7654933</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>1282627</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="2">
-        <v>167.27</v>
-      </c>
-      <c r="G13" s="2">
         <v>4960.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>658634</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>281408</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1840646</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>671881</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>128829</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>658057</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>105522</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1765</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6368,13 +6773,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6406,7 +6811,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
@@ -6418,13 +6823,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2">
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>149</v>
@@ -6450,7 +6855,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>101</v>
@@ -6462,13 +6867,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>149</v>
@@ -6494,7 +6899,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>101</v>
@@ -6506,13 +6911,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G4" s="2">
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>149</v>
@@ -6538,7 +6943,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -6550,13 +6955,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2">
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>149</v>
@@ -6582,7 +6987,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>101</v>
@@ -6594,13 +6999,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G6" s="2">
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>149</v>
@@ -6626,7 +7031,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -6638,13 +7043,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2">
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>149</v>
@@ -6670,7 +7075,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>101</v>
@@ -6682,13 +7087,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2">
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>149</v>
@@ -6714,7 +7119,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -6726,13 +7131,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>149</v>
@@ -6758,7 +7163,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>101</v>
@@ -6770,13 +7175,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2">
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>149</v>
@@ -6802,7 +7207,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>101</v>
@@ -6811,16 +7216,16 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G11" s="2">
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>149</v>
@@ -6846,7 +7251,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>101</v>
@@ -6858,13 +7263,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2">
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>149</v>
@@ -6890,7 +7295,7 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>101</v>
@@ -6902,13 +7307,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2">
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>149</v>
@@ -6934,7 +7339,7 @@
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>101</v>
@@ -6946,13 +7351,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G14" s="2">
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>149</v>
@@ -6988,16 +7393,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7005,16 +7410,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7022,16 +7427,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7039,16 +7444,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7056,16 +7461,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7073,16 +7478,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7090,16 +7495,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7107,16 +7512,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7124,16 +7529,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7141,16 +7546,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7158,16 +7563,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7175,16 +7580,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7192,16 +7597,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7209,16 +7614,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7226,16 +7631,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7243,16 +7648,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7260,16 +7665,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7277,16 +7682,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7294,16 +7699,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7311,16 +7716,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7328,16 +7733,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7345,16 +7750,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7362,16 +7767,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7379,16 +7784,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7396,16 +7801,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7413,16 +7818,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7430,16 +7835,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7447,16 +7852,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7464,16 +7869,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7481,16 +7886,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7498,16 +7903,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7515,16 +7920,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7532,16 +7937,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7549,16 +7954,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7576,22 +7981,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1">
         <v>154840749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7599,22 +8004,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7622,22 +8027,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -7658,19 +8063,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7681,19 +8086,19 @@
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7704,19 +8109,19 @@
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7727,16 +8132,16 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>143</v>
@@ -7750,16 +8155,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>142</v>
@@ -7773,19 +8178,19 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="288">
   <si>
     <t>name</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>蘇〇荃</t>
-  </si>
-  <si>
-    <t>蘇◦荃■</t>
   </si>
   <si>
     <t>76年12月10日</t>
@@ -1318,22 +1315,22 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>100</v>
@@ -1342,7 +1339,7 @@
         <v>1765</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="2">
         <v>13</v>
@@ -1371,22 +1368,22 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>100</v>
@@ -1395,7 +1392,7 @@
         <v>1765</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" s="2">
         <v>14</v>
@@ -1424,22 +1421,22 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>100</v>
@@ -1448,7 +1445,7 @@
         <v>1765</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -1477,22 +1474,22 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>100</v>
@@ -1501,7 +1498,7 @@
         <v>1765</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" s="2">
         <v>16</v>
@@ -1530,22 +1527,22 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>100</v>
@@ -1554,7 +1551,7 @@
         <v>1765</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O6" s="2">
         <v>17</v>
@@ -1583,22 +1580,22 @@
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>100</v>
@@ -1607,7 +1604,7 @@
         <v>1765</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7" s="2">
         <v>18</v>
@@ -1636,22 +1633,22 @@
         <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>100</v>
@@ -1660,7 +1657,7 @@
         <v>1765</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O8" s="2">
         <v>19</v>
@@ -1689,22 +1686,22 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>100</v>
@@ -1713,7 +1710,7 @@
         <v>1765</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O9" s="2">
         <v>20</v>
@@ -1742,22 +1739,22 @@
         <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>100</v>
@@ -1766,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" s="2">
         <v>21</v>
@@ -1795,22 +1792,22 @@
         <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>100</v>
@@ -1819,7 +1816,7 @@
         <v>1765</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
         <v>22</v>
@@ -1848,22 +1845,22 @@
         <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>100</v>
@@ -1872,7 +1869,7 @@
         <v>1765</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2">
         <v>23</v>
@@ -1901,22 +1898,22 @@
         <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>100</v>
@@ -1925,7 +1922,7 @@
         <v>1765</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2">
         <v>24</v>
@@ -1954,22 +1951,22 @@
         <v>100</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>100</v>
@@ -1978,7 +1975,7 @@
         <v>1765</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2">
         <v>25</v>
@@ -2007,22 +2004,22 @@
         <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>100</v>
@@ -2031,7 +2028,7 @@
         <v>1765</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2">
         <v>28</v>
@@ -2060,22 +2057,22 @@
         <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>100</v>
@@ -2084,7 +2081,7 @@
         <v>1765</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" s="2">
         <v>29</v>
@@ -2113,22 +2110,22 @@
         <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>100</v>
@@ -2137,7 +2134,7 @@
         <v>1765</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" s="2">
         <v>30</v>
@@ -2166,22 +2163,22 @@
         <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>100</v>
@@ -2190,7 +2187,7 @@
         <v>1765</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O18" s="2">
         <v>31</v>
@@ -2219,22 +2216,22 @@
         <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>100</v>
@@ -2243,7 +2240,7 @@
         <v>1765</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" s="2">
         <v>32</v>
@@ -2272,22 +2269,22 @@
         <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>100</v>
@@ -2296,7 +2293,7 @@
         <v>1765</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O20" s="2">
         <v>33</v>
@@ -2325,22 +2322,22 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>100</v>
@@ -2349,7 +2346,7 @@
         <v>1765</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" s="2">
         <v>34</v>
@@ -2378,22 +2375,22 @@
         <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>100</v>
@@ -2402,7 +2399,7 @@
         <v>1765</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2">
         <v>35</v>
@@ -2431,22 +2428,22 @@
         <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>100</v>
@@ -2455,7 +2452,7 @@
         <v>1765</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2">
         <v>36</v>
@@ -2484,22 +2481,22 @@
         <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="2">
         <v>2100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>100</v>
@@ -2508,7 +2505,7 @@
         <v>1765</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2">
         <v>37</v>
@@ -2537,22 +2534,22 @@
         <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="2">
         <v>271350</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>100</v>
@@ -2561,7 +2558,7 @@
         <v>1765</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O25" s="2">
         <v>38</v>
@@ -2590,22 +2587,22 @@
         <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="2">
         <v>4350</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>100</v>
@@ -2614,7 +2611,7 @@
         <v>1765</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O26" s="2">
         <v>39</v>
@@ -2643,22 +2640,22 @@
         <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>100</v>
@@ -2667,7 +2664,7 @@
         <v>1765</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2">
         <v>40</v>
@@ -2696,22 +2693,22 @@
         <v>100</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>100</v>
@@ -2720,7 +2717,7 @@
         <v>1765</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O28" s="2">
         <v>41</v>
@@ -2749,22 +2746,22 @@
         <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" s="2">
         <v>9000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>100</v>
@@ -2773,7 +2770,7 @@
         <v>1765</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O29" s="2">
         <v>42</v>
@@ -2802,22 +2799,22 @@
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>100</v>
@@ -2826,7 +2823,7 @@
         <v>1765</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O30" s="2">
         <v>43</v>
@@ -2855,22 +2852,22 @@
         <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>100</v>
@@ -2879,7 +2876,7 @@
         <v>1765</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O31" s="2">
         <v>44</v>
@@ -2908,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>100</v>
@@ -2932,7 +2929,7 @@
         <v>1765</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O32" s="2">
         <v>45</v>
@@ -2961,22 +2958,22 @@
         <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>100</v>
@@ -2985,7 +2982,7 @@
         <v>1765</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O33" s="2">
         <v>46</v>
@@ -3014,22 +3011,22 @@
         <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>100</v>
@@ -3038,7 +3035,7 @@
         <v>1765</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O34" s="2">
         <v>49</v>
@@ -3067,22 +3064,22 @@
         <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>100</v>
@@ -3091,7 +3088,7 @@
         <v>1765</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35" s="2">
         <v>50</v>
@@ -3120,22 +3117,22 @@
         <v>101</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>100</v>
@@ -3144,7 +3141,7 @@
         <v>1765</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O36" s="2">
         <v>51</v>
@@ -3173,22 +3170,22 @@
         <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>100</v>
@@ -3197,7 +3194,7 @@
         <v>1765</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O37" s="2">
         <v>52</v>
@@ -3226,22 +3223,22 @@
         <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>100</v>
@@ -3250,7 +3247,7 @@
         <v>1765</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O38" s="2">
         <v>53</v>
@@ -3279,22 +3276,22 @@
         <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>100</v>
@@ -3303,7 +3300,7 @@
         <v>1765</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O39" s="2">
         <v>54</v>
@@ -3332,22 +3329,22 @@
         <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>100</v>
@@ -3356,7 +3353,7 @@
         <v>1765</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O40" s="2">
         <v>55</v>
@@ -3385,22 +3382,22 @@
         <v>101</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>100</v>
@@ -3409,7 +3406,7 @@
         <v>1765</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O41" s="2">
         <v>56</v>
@@ -3438,22 +3435,22 @@
         <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>100</v>
@@ -3462,7 +3459,7 @@
         <v>1765</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O42" s="2">
         <v>57</v>
@@ -3491,22 +3488,22 @@
         <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>100</v>
@@ -3515,7 +3512,7 @@
         <v>1765</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O43" s="2">
         <v>58</v>
@@ -3544,22 +3541,22 @@
         <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>100</v>
@@ -3568,7 +3565,7 @@
         <v>1765</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O44" s="2">
         <v>59</v>
@@ -3597,22 +3594,22 @@
         <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>100</v>
@@ -3621,7 +3618,7 @@
         <v>1765</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O45" s="2">
         <v>60</v>
@@ -3650,22 +3647,22 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>100</v>
@@ -3674,7 +3671,7 @@
         <v>1765</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O46" s="2">
         <v>61</v>
@@ -3703,22 +3700,22 @@
         <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>100</v>
@@ -3727,7 +3724,7 @@
         <v>1765</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="2">
         <v>62</v>
@@ -3756,22 +3753,22 @@
         <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>100</v>
@@ -3780,7 +3777,7 @@
         <v>1765</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="2">
         <v>63</v>
@@ -3806,25 +3803,25 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>100</v>
@@ -3833,7 +3830,7 @@
         <v>1765</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="2">
         <v>64</v>
@@ -3862,22 +3859,22 @@
         <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2">
         <v>321000</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>100</v>
@@ -3886,7 +3883,7 @@
         <v>1765</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="2">
         <v>65</v>
@@ -3915,22 +3912,22 @@
         <v>103</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="2">
         <v>233000</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>100</v>
@@ -3939,7 +3936,7 @@
         <v>1765</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="2">
         <v>66</v>
@@ -3968,22 +3965,22 @@
         <v>102</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H52" s="2">
         <v>250000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>100</v>
@@ -3992,7 +3989,7 @@
         <v>1765</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="2">
         <v>67</v>
@@ -4021,22 +4018,22 @@
         <v>101</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H53" s="2">
         <v>159644</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>100</v>
@@ -4045,7 +4042,7 @@
         <v>1765</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O53" s="2">
         <v>70</v>
@@ -4074,22 +4071,22 @@
         <v>101</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="2">
         <v>82204</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>100</v>
@@ -4098,7 +4095,7 @@
         <v>1765</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O54" s="2">
         <v>71</v>
@@ -4127,22 +4124,22 @@
         <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H55" s="2">
         <v>452343</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>100</v>
@@ -4151,7 +4148,7 @@
         <v>1765</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O55" s="2">
         <v>72</v>
@@ -4180,22 +4177,22 @@
         <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H56" s="2">
         <v>287617</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>100</v>
@@ -4204,7 +4201,7 @@
         <v>1765</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O56" s="2">
         <v>73</v>
@@ -4233,22 +4230,22 @@
         <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" s="2">
         <v>4313877</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>100</v>
@@ -4257,7 +4254,7 @@
         <v>1765</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O57" s="2">
         <v>74</v>
@@ -4286,22 +4283,22 @@
         <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="2">
         <v>4313877</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>100</v>
@@ -4310,7 +4307,7 @@
         <v>1765</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O58" s="2">
         <v>75</v>
@@ -4339,22 +4336,22 @@
         <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H59" s="2">
         <v>2571439</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>100</v>
@@ -4363,7 +4360,7 @@
         <v>1765</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O59" s="2">
         <v>76</v>
@@ -4392,22 +4389,22 @@
         <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H60" s="2">
         <v>2571439</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>100</v>
@@ -4416,7 +4413,7 @@
         <v>1765</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O60" s="2">
         <v>77</v>
@@ -4445,22 +4442,22 @@
         <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H61" s="2">
         <v>715178</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>100</v>
@@ -4469,7 +4466,7 @@
         <v>1765</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O61" s="2">
         <v>78</v>
@@ -4498,22 +4495,22 @@
         <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" s="2">
         <v>715178</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>100</v>
@@ -4522,7 +4519,7 @@
         <v>1765</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O62" s="2">
         <v>79</v>
@@ -4551,22 +4548,22 @@
         <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>100</v>
@@ -4575,7 +4572,7 @@
         <v>1765</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O63" s="2">
         <v>80</v>
@@ -4604,22 +4601,22 @@
         <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="J64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>100</v>
@@ -4628,7 +4625,7 @@
         <v>1765</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O64" s="2">
         <v>81</v>
@@ -4657,22 +4654,22 @@
         <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65" s="2">
         <v>42915413</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>100</v>
@@ -4681,7 +4678,7 @@
         <v>1765</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O65" s="2">
         <v>82</v>
@@ -4710,22 +4707,22 @@
         <v>103</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H66" s="2">
         <v>2842951</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>100</v>
@@ -4734,7 +4731,7 @@
         <v>1765</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O66" s="2">
         <v>83</v>
@@ -4763,22 +4760,22 @@
         <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H67" s="2">
         <v>4348029</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>100</v>
@@ -4787,7 +4784,7 @@
         <v>1765</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O67" s="2">
         <v>84</v>
@@ -4816,22 +4813,22 @@
         <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H68" s="2">
         <v>3615902</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>100</v>
@@ -4840,7 +4837,7 @@
         <v>1765</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O68" s="2">
         <v>85</v>
@@ -4869,22 +4866,22 @@
         <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H69" s="2">
         <v>120050</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>100</v>
@@ -4893,7 +4890,7 @@
         <v>1765</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O69" s="2">
         <v>86</v>
@@ -4922,22 +4919,22 @@
         <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H70" s="2">
         <v>230242</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>100</v>
@@ -4946,7 +4943,7 @@
         <v>1765</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O70" s="2">
         <v>87</v>
@@ -4975,22 +4972,22 @@
         <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H71" s="2">
         <v>118863</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>100</v>
@@ -4999,7 +4996,7 @@
         <v>1765</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O71" s="2">
         <v>88</v>
@@ -5028,22 +5025,22 @@
         <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H72" s="2">
         <v>1425757</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>100</v>
@@ -5052,7 +5049,7 @@
         <v>1765</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O72" s="2">
         <v>91</v>
@@ -5081,22 +5078,22 @@
         <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H73" s="2">
         <v>680225</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>100</v>
@@ -5105,7 +5102,7 @@
         <v>1765</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O73" s="2">
         <v>92</v>
@@ -5134,22 +5131,22 @@
         <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H74" s="2">
         <v>32550</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>100</v>
@@ -5158,7 +5155,7 @@
         <v>1765</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O74" s="2">
         <v>93</v>
@@ -5187,22 +5184,22 @@
         <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H75" s="2">
         <v>202522</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>100</v>
@@ -5211,7 +5208,7 @@
         <v>1765</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O75" s="2">
         <v>94</v>
@@ -5291,7 +5288,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2">
         <v>126.7</v>
@@ -5303,22 +5300,22 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>100</v>
@@ -5327,7 +5324,7 @@
         <v>1765</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="2">
         <v>99</v>
@@ -5344,7 +5341,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2">
         <v>166.3</v>
@@ -5356,22 +5353,22 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>100</v>
@@ -5380,7 +5377,7 @@
         <v>1765</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" s="2">
         <v>100</v>
@@ -5397,7 +5394,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2">
         <v>4758.2</v>
@@ -5409,22 +5406,22 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>100</v>
@@ -5433,7 +5430,7 @@
         <v>1765</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" s="2">
         <v>101</v>
@@ -5450,7 +5447,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2">
         <v>1160.1</v>
@@ -5462,22 +5459,22 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>100</v>
@@ -5486,7 +5483,7 @@
         <v>1765</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" s="2">
         <v>102</v>
@@ -5503,7 +5500,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2">
         <v>726.8</v>
@@ -5515,22 +5512,22 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>100</v>
@@ -5539,7 +5536,7 @@
         <v>1765</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O6" s="2">
         <v>103</v>
@@ -5556,7 +5553,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2">
         <v>143.9</v>
@@ -5568,22 +5565,22 @@
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>100</v>
@@ -5592,7 +5589,7 @@
         <v>1765</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7" s="2">
         <v>104</v>
@@ -5609,7 +5606,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2">
         <v>94.7</v>
@@ -5621,22 +5618,22 @@
         <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>100</v>
@@ -5645,7 +5642,7 @@
         <v>1765</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O8" s="2">
         <v>105</v>
@@ -5662,7 +5659,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2">
         <v>127.9</v>
@@ -5674,22 +5671,22 @@
         <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>100</v>
@@ -5698,7 +5695,7 @@
         <v>1765</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O9" s="2">
         <v>106</v>
@@ -5715,7 +5712,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2">
         <v>217.4</v>
@@ -5727,22 +5724,22 @@
         <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>100</v>
@@ -5751,7 +5748,7 @@
         <v>1765</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" s="2">
         <v>107</v>
@@ -5768,7 +5765,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2">
         <v>133.7</v>
@@ -5780,22 +5777,22 @@
         <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>100</v>
@@ -5804,7 +5801,7 @@
         <v>1765</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
         <v>108</v>
@@ -5821,7 +5818,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2">
         <v>150.9</v>
@@ -5833,22 +5830,22 @@
         <v>101</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>100</v>
@@ -5857,7 +5854,7 @@
         <v>1765</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2">
         <v>109</v>
@@ -5874,34 +5871,34 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2">
         <v>1240.85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>100</v>
@@ -5910,7 +5907,7 @@
         <v>1765</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2">
         <v>110</v>
@@ -5937,13 +5934,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5978,13 +5975,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>100</v>
@@ -5993,13 +5990,13 @@
         <v>1488856</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>100</v>
@@ -6008,7 +6005,7 @@
         <v>1765</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="2">
         <v>135</v>
@@ -6019,13 +6016,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>100</v>
@@ -6034,13 +6031,13 @@
         <v>1822120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>100</v>
@@ -6049,7 +6046,7 @@
         <v>1765</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="2">
         <v>136</v>
@@ -6060,13 +6057,13 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>100</v>
@@ -6075,13 +6072,13 @@
         <v>400172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>100</v>
@@ -6090,7 +6087,7 @@
         <v>1765</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M4" s="2">
         <v>137</v>
@@ -6101,13 +6098,13 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>100</v>
@@ -6116,13 +6113,13 @@
         <v>4805165</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>100</v>
@@ -6131,7 +6128,7 @@
         <v>1765</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M5" s="2">
         <v>138</v>
@@ -6142,13 +6139,13 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
@@ -6157,13 +6154,13 @@
         <v>2138925.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>100</v>
@@ -6172,7 +6169,7 @@
         <v>1765</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M6" s="2">
         <v>139</v>
@@ -6183,13 +6180,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>101</v>
@@ -6198,13 +6195,13 @@
         <v>3569474</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>100</v>
@@ -6213,7 +6210,7 @@
         <v>1765</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M7" s="2">
         <v>140</v>
@@ -6224,13 +6221,13 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>101</v>
@@ -6239,13 +6236,13 @@
         <v>6294755</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>100</v>
@@ -6254,7 +6251,7 @@
         <v>1765</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="2">
         <v>141</v>
@@ -6265,13 +6262,13 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
@@ -6280,13 +6277,13 @@
         <v>323475</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>100</v>
@@ -6295,7 +6292,7 @@
         <v>1765</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" s="2">
         <v>142</v>
@@ -6306,13 +6303,13 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>103</v>
@@ -6321,13 +6318,13 @@
         <v>4113758</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>100</v>
@@ -6336,7 +6333,7 @@
         <v>1765</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="2">
         <v>143</v>
@@ -6347,13 +6344,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>100</v>
@@ -6362,13 +6359,13 @@
         <v>7654933</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>100</v>
@@ -6377,7 +6374,7 @@
         <v>1765</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2">
         <v>144</v>
@@ -6388,13 +6385,13 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>100</v>
@@ -6403,13 +6400,13 @@
         <v>1282627</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>100</v>
@@ -6418,7 +6415,7 @@
         <v>1765</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2">
         <v>145</v>
@@ -6429,13 +6426,13 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>100</v>
@@ -6444,13 +6441,13 @@
         <v>4960.39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>100</v>
@@ -6459,7 +6456,7 @@
         <v>1765</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M13" s="2">
         <v>146</v>
@@ -6470,13 +6467,13 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
@@ -6485,13 +6482,13 @@
         <v>658634</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>100</v>
@@ -6500,7 +6497,7 @@
         <v>1765</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M14" s="2">
         <v>147</v>
@@ -6511,13 +6508,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>101</v>
@@ -6526,13 +6523,13 @@
         <v>281408</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>100</v>
@@ -6541,7 +6538,7 @@
         <v>1765</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M15" s="2">
         <v>148</v>
@@ -6552,13 +6549,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>100</v>
@@ -6567,13 +6564,13 @@
         <v>1840646</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>100</v>
@@ -6582,7 +6579,7 @@
         <v>1765</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M16" s="2">
         <v>149</v>
@@ -6593,13 +6590,13 @@
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>100</v>
@@ -6608,13 +6605,13 @@
         <v>671881</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>100</v>
@@ -6623,7 +6620,7 @@
         <v>1765</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M17" s="2">
         <v>151</v>
@@ -6634,13 +6631,13 @@
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>102</v>
@@ -6649,13 +6646,13 @@
         <v>128829</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>100</v>
@@ -6664,7 +6661,7 @@
         <v>1765</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2">
         <v>152</v>
@@ -6675,13 +6672,13 @@
         <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>101</v>
@@ -6690,13 +6687,13 @@
         <v>658057</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>100</v>
@@ -6705,7 +6702,7 @@
         <v>1765</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="2">
         <v>153</v>
@@ -6716,13 +6713,13 @@
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>100</v>
@@ -6731,13 +6728,13 @@
         <v>105522</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>100</v>
@@ -6746,7 +6743,7 @@
         <v>1765</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2">
         <v>154</v>
@@ -6773,13 +6770,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6811,7 +6808,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
@@ -6823,19 +6820,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2">
         <v>480000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>100</v>
@@ -6844,7 +6841,7 @@
         <v>1765</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2">
         <v>161</v>
@@ -6855,7 +6852,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>101</v>
@@ -6867,19 +6864,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>100</v>
@@ -6888,7 +6885,7 @@
         <v>1765</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2">
         <v>162</v>
@@ -6899,7 +6896,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>101</v>
@@ -6911,19 +6908,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2">
         <v>104000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>100</v>
@@ -6932,7 +6929,7 @@
         <v>1765</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2">
         <v>163</v>
@@ -6943,7 +6940,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -6955,19 +6952,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="2">
         <v>101000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>100</v>
@@ -6976,7 +6973,7 @@
         <v>1765</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N5" s="2">
         <v>164</v>
@@ -6987,7 +6984,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>101</v>
@@ -6999,19 +6996,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2">
         <v>66420</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>100</v>
@@ -7020,7 +7017,7 @@
         <v>1765</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N6" s="2">
         <v>165</v>
@@ -7031,7 +7028,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -7043,19 +7040,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="2">
         <v>670010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>100</v>
@@ -7064,7 +7061,7 @@
         <v>1765</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N7" s="2">
         <v>166</v>
@@ -7075,7 +7072,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>101</v>
@@ -7087,19 +7084,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2">
         <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>100</v>
@@ -7108,7 +7105,7 @@
         <v>1765</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N8" s="2">
         <v>167</v>
@@ -7119,7 +7116,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -7131,19 +7128,19 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="2">
         <v>450000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>100</v>
@@ -7152,7 +7149,7 @@
         <v>1765</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N9" s="2">
         <v>168</v>
@@ -7163,7 +7160,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>101</v>
@@ -7175,19 +7172,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2">
         <v>113240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>100</v>
@@ -7196,7 +7193,7 @@
         <v>1765</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2">
         <v>169</v>
@@ -7207,7 +7204,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>101</v>
@@ -7216,22 +7213,22 @@
         <v>10150</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2">
         <v>101500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>100</v>
@@ -7240,7 +7237,7 @@
         <v>1765</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2">
         <v>170</v>
@@ -7251,7 +7248,7 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>101</v>
@@ -7263,19 +7260,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2">
         <v>190000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>100</v>
@@ -7284,7 +7281,7 @@
         <v>1765</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2">
         <v>171</v>
@@ -7295,7 +7292,7 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>101</v>
@@ -7307,19 +7304,19 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="2">
         <v>204870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>100</v>
@@ -7328,7 +7325,7 @@
         <v>1765</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" s="2">
         <v>172</v>
@@ -7339,7 +7336,7 @@
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>101</v>
@@ -7351,19 +7348,19 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="2">
         <v>286000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>100</v>
@@ -7372,7 +7369,7 @@
         <v>1765</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="2">
         <v>173</v>
@@ -7393,16 +7390,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7410,16 +7407,16 @@
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7427,16 +7424,16 @@
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7444,16 +7441,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7461,16 +7458,16 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7478,16 +7475,16 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7495,16 +7492,16 @@
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7512,16 +7509,16 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7529,16 +7526,16 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7546,16 +7543,16 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7563,16 +7560,16 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7580,16 +7577,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7597,16 +7594,16 @@
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7614,16 +7611,16 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7631,16 +7628,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7648,16 +7645,16 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7665,16 +7662,16 @@
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7682,16 +7679,16 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7699,16 +7696,16 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7716,16 +7713,16 @@
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7733,16 +7730,16 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7750,16 +7747,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7767,16 +7764,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7784,16 +7781,16 @@
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7801,16 +7798,16 @@
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7818,16 +7815,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7835,16 +7832,16 @@
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7852,16 +7849,16 @@
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7869,16 +7866,16 @@
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7886,16 +7883,16 @@
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7903,16 +7900,16 @@
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7920,16 +7917,16 @@
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7937,16 +7934,16 @@
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7954,16 +7951,16 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7978,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E1" s="1">
         <v>154840749</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8004,22 +8001,22 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8027,22 +8024,22 @@
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8060,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8086,19 +8083,19 @@
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8109,19 +8106,19 @@
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8132,19 +8129,19 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8155,19 +8152,19 @@
         <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8178,19 +8175,19 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
+++ b/legislator/property/output/normal/蘇清泉_2013-12-13_財產申報表_tmpf3b81.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="260">
   <si>
     <t>name</t>
   </si>
@@ -658,27 +658,27 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>二商美邦人壽</t>
+  </si>
+  <si>
     <t>護癌宣言終身健康保險</t>
   </si>
   <si>
-    <t>1008835096</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>二商美邦人壽</t>
-  </si>
-  <si>
     <t>健康久久終身醫療健康保險</t>
   </si>
   <si>
@@ -736,100 +736,13 @@
     <t>六年繳費金富利終身保險</t>
   </si>
   <si>
-    <t>1008835103</t>
-  </si>
-  <si>
-    <t>ABRE003860</t>
-  </si>
-  <si>
-    <t>AEEEA07740</t>
-  </si>
-  <si>
-    <t>ARB0055760</t>
-  </si>
-  <si>
-    <t>1008833930</t>
-  </si>
-  <si>
-    <t>1008833958</t>
-  </si>
-  <si>
-    <t>JQB0F9KU40</t>
-  </si>
-  <si>
-    <t>ABRE003980</t>
-  </si>
-  <si>
-    <t>AEEEA07980</t>
-  </si>
-  <si>
-    <t>IQB0AU7T10</t>
-  </si>
-  <si>
-    <t>1023722036</t>
-  </si>
-  <si>
-    <t>1023022513</t>
-  </si>
-  <si>
-    <t>1023022522</t>
-  </si>
-  <si>
-    <t>1023023501</t>
-  </si>
-  <si>
-    <t>1023023510</t>
-  </si>
-  <si>
-    <t>F6005812</t>
-  </si>
-  <si>
-    <t>F6005813</t>
-  </si>
-  <si>
-    <t>N888391481</t>
-  </si>
-  <si>
-    <t>N814061109</t>
-  </si>
-  <si>
-    <t>N888391494</t>
-  </si>
-  <si>
-    <t>N814061112</t>
-  </si>
-  <si>
-    <t>F478001974</t>
-  </si>
-  <si>
-    <t>F478001987</t>
-  </si>
-  <si>
-    <t>T12060574003</t>
-  </si>
-  <si>
-    <t>T12060574002</t>
-  </si>
-  <si>
-    <t>B22000544301</t>
-  </si>
-  <si>
-    <t>B22000544302</t>
-  </si>
-  <si>
-    <t>1023723113</t>
-  </si>
-  <si>
-    <t>A8BE466730</t>
-  </si>
-  <si>
-    <t>1030913565</t>
-  </si>
-  <si>
-    <t>F478001990</t>
-  </si>
-  <si>
-    <t>172000150319</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>債權</t>
@@ -838,52 +751,55 @@
     <t>安泰醫療社團法人安泰醫院屏東縣東港鎮中正路一段210號</t>
   </si>
   <si>
+    <t>天生崑泰養護中心籌備處屏東縣崁頂鄉北勢村中正路836號</t>
+  </si>
+  <si>
     <t>102年12月13日</t>
   </si>
   <si>
     <t>往來</t>
   </si>
   <si>
-    <t>天生崑泰養護中心籌備處屏東縣崁頂鄉北勢村中正路836號</t>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>安泰醫療社團法人</t>
   </si>
   <si>
+    <t>泰富國際輪船股份有限公司</t>
+  </si>
+  <si>
+    <t>天生崑泰養護中心</t>
+  </si>
+  <si>
     <t>屏東縣中正路一段210號</t>
   </si>
   <si>
-    <t>845990157</t>
+    <t>屏東縣朝安里20鄰朝隆路26號</t>
+  </si>
+  <si>
+    <t>屏東縣北勢村中正路836號</t>
   </si>
   <si>
     <t>102年09月30日</t>
   </si>
   <si>
+    <t>101年12月24日</t>
+  </si>
+  <si>
+    <t>101年04月27日</t>
+  </si>
+  <si>
     <t>安泰醫療社團法人淨值</t>
   </si>
   <si>
-    <t>泰富國際輪船股份有限公司</t>
-  </si>
-  <si>
-    <t>天生崑泰養護中心</t>
-  </si>
-  <si>
-    <t>屏東縣朝安里20鄰朝隆路26號</t>
-  </si>
-  <si>
-    <t>屏東縣北勢村中正路836號</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>101年12月24日</t>
-  </si>
-  <si>
-    <t>101年04月27日</t>
-  </si>
-  <si>
     <t>個人投資事業期望帶動觀光</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -7382,49 +7298,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>219</v>
@@ -7435,13 +7387,31 @@
       <c r="E3" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>220</v>
@@ -7450,15 +7420,33 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>221</v>
@@ -7467,15 +7455,33 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>222</v>
@@ -7484,32 +7490,68 @@
         <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>219</v>
@@ -7518,15 +7560,33 @@
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>223</v>
@@ -7535,15 +7595,33 @@
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>220</v>
@@ -7552,15 +7630,33 @@
         <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>221</v>
@@ -7569,15 +7665,33 @@
         <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>224</v>
@@ -7586,32 +7700,68 @@
         <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>225</v>
@@ -7620,15 +7770,33 @@
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>226</v>
@@ -7637,32 +7805,68 @@
         <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2">
         <v>212</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>213</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>219</v>
@@ -7671,15 +7875,33 @@
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>227</v>
@@ -7688,15 +7910,33 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>227</v>
@@ -7705,15 +7945,33 @@
         <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>216</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>228</v>
@@ -7722,15 +7980,33 @@
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>228</v>
@@ -7739,15 +8015,33 @@
         <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>229</v>
@@ -7756,15 +8050,33 @@
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>229</v>
@@ -7773,15 +8085,33 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>230</v>
@@ -7790,15 +8120,33 @@
         <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>230</v>
@@ -7807,15 +8155,33 @@
         <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>231</v>
@@ -7824,15 +8190,33 @@
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>232</v>
@@ -7841,15 +8225,33 @@
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>233</v>
@@ -7858,15 +8260,33 @@
         <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>234</v>
@@ -7875,32 +8295,68 @@
         <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>235</v>
@@ -7909,15 +8365,33 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>236</v>
@@ -7926,15 +8400,33 @@
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>230</v>
@@ -7943,15 +8435,33 @@
         <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>237</v>
@@ -7960,7 +8470,25 @@
         <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1765</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="2">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7970,76 +8498,139 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="1">
-        <v>154840749</v>
+        <v>240</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2">
         <v>154840749</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>245</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="E3" s="2">
         <v>8198000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>245</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="2">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8049,33 +8640,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>247</v>
       </c>
@@ -8083,22 +8695,43 @@
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
+      </c>
+      <c r="E2" s="2">
+        <v>845990157</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>257</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>248</v>
       </c>
@@ -8106,22 +8739,43 @@
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="E3" s="2">
         <v>20000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>258</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>250</v>
       </c>
@@ -8129,22 +8783,43 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2">
         <v>4311869</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>251</v>
       </c>
@@ -8152,22 +8827,43 @@
         <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>253</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>252</v>
       </c>
@@ -8175,19 +8871,40 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E6" s="2">
         <v>647521</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="2">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
